--- a/Vegan_WebProject/Gantt_chart_Team1.xlsx
+++ b/Vegan_WebProject/Gantt_chart_Team1.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김형근\Desktop\VeganProject Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19653CE4-A2C5-45E4-A1B9-CD2C420C5D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E014464A-8121-47E2-A90C-F3F9E6954C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" activeTab="2" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="13" r:id="rId1"/>
@@ -42,6 +37,7 @@
     <definedName name="스케쥴">[2]일정표!$P$6:$P$17,[2]일정표!$N$6:$N$17,[2]일정표!$L$6:$L$17,[2]일정표!$J$6:$J$17,[2]일정표!$H$6:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <oleSize ref="B6:G16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,6 +48,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4427,7 +4424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9DBF1E6-6567-4610-82E8-E1FF6C81B4D1}" type="CELLRANGE">
+                    <a:fld id="{62BFDACE-A477-41B9-9707-7BDFDFD39A36}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6153,7 +6150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13E4DC31-6336-465B-A9CE-F4391492DCAA}" type="CELLRANGE">
+                    <a:fld id="{EC7EE383-B567-44D1-B852-A49248A97AE7}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6186,7 +6183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFAEA387-18F7-482E-AEC5-96BFBD241A3A}" type="CELLRANGE">
+                    <a:fld id="{9B724FAB-7E04-41B2-AF6D-2B7A578B6C0E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6219,7 +6216,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{219F9539-7F88-4B7B-B085-F19E69178A44}" type="CELLRANGE">
+                    <a:fld id="{D2687EC9-2CE6-4544-A68E-D2D1388D06CD}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6252,7 +6249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63EA73C4-C2D7-4FCD-96FD-69C803843CC4}" type="CELLRANGE">
+                    <a:fld id="{1F31054E-2F41-4461-B021-53250A48012A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6285,7 +6282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD5F6772-28F6-4356-9869-E45363CD8635}" type="CELLRANGE">
+                    <a:fld id="{EC6BD5FB-A02C-45BC-AEB4-56C86C3A40CF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6318,7 +6315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7F59232-DFFC-4F34-B3A1-6970BFA2EBD8}" type="CELLRANGE">
+                    <a:fld id="{7AAB3979-6384-4A0F-9EF8-A38B09B3FAF4}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6351,7 +6348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B31BE288-6C10-4680-BA51-E430490E1A4B}" type="CELLRANGE">
+                    <a:fld id="{20878BBE-69B0-4A9E-A858-FFAEAFAAD4F5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6384,7 +6381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92A5D058-3115-4D4F-867A-58399B5B9196}" type="CELLRANGE">
+                    <a:fld id="{CC4D99C3-89DA-4B76-9097-4FC4012F9548}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6417,7 +6414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFB763AB-18A2-4066-A48C-9D47F068C1F3}" type="CELLRANGE">
+                    <a:fld id="{5B3B5F26-336D-4FB2-934D-2D7EF1F4FF77}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6450,7 +6447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EF09468-6A76-4246-9C54-D291DD34508A}" type="CELLRANGE">
+                    <a:fld id="{0AC9D9DE-83CF-4CE0-ADF1-B45BA00545FD}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6483,7 +6480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{746C8953-13B2-477B-85AF-FE0AAF046336}" type="CELLRANGE">
+                    <a:fld id="{499047B0-90BB-454E-8CB3-BB70CB408E21}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6516,7 +6513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA783030-1A06-4481-B18B-3B32CFCA8D34}" type="CELLRANGE">
+                    <a:fld id="{7B2D520C-E4BF-487D-AC4A-42A8B66BC2E5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6549,7 +6546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D93F0FF-ECE3-40E0-8E58-67A6080F7DFB}" type="CELLRANGE">
+                    <a:fld id="{F97B3224-5D14-45BD-931D-386AD34BF72E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6582,7 +6579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02C84755-D590-4A31-8FC9-157D1A597813}" type="CELLRANGE">
+                    <a:fld id="{769E01EC-E6B7-4112-B501-0F62B2B6D352}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6615,7 +6612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F23E26A1-15E4-4BD0-AEC3-0824F7C5ACF6}" type="CELLRANGE">
+                    <a:fld id="{2ED946F8-6D6F-440D-A736-1DB7B2558551}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6648,7 +6645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDA4FE37-B79C-4638-A05F-CCA5706B3BA9}" type="CELLRANGE">
+                    <a:fld id="{B888DC87-8618-42EF-A3E9-84DE00798E61}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6681,7 +6678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AB3F335-4BEC-4180-B726-DAFAD3242153}" type="CELLRANGE">
+                    <a:fld id="{B672711B-9515-4DA2-8CC3-05AB9BCCB8E3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6714,7 +6711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{152A1CDD-D326-4A2E-9A77-9D7669C1B41D}" type="CELLRANGE">
+                    <a:fld id="{2ED29AC8-7634-4D68-BF01-BAB8FA4693DA}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6747,7 +6744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08167716-BD27-4440-95D3-A17C1031023F}" type="CELLRANGE">
+                    <a:fld id="{F759486B-8C3D-4B84-8CBD-CA5718B26DC9}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12889,7 +12886,7 @@
   </sheetPr>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13776,10 +13773,10 @@
     <tabColor theme="7" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AA48"/>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" customHeight="1"/>
@@ -14434,6 +14431,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14704,7 +14702,7 @@
     <tabColor theme="0" tint="-0.14999847407452621"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AA44"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -15607,7 +15605,7 @@
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AB44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>

--- a/Vegan_WebProject/Gantt_chart_Team1.xlsx
+++ b/Vegan_WebProject/Gantt_chart_Team1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E014464A-8121-47E2-A90C-F3F9E6954C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C117F59D-15F9-4E0C-A586-B52416744955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" activeTab="2" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" activeTab="2" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="13" r:id="rId1"/>
@@ -4424,7 +4424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62BFDACE-A477-41B9-9707-7BDFDFD39A36}" type="CELLRANGE">
+                    <a:fld id="{8FC8D82F-9EA7-47FA-8F73-0614AB8F2AC9}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6150,7 +6150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC7EE383-B567-44D1-B852-A49248A97AE7}" type="CELLRANGE">
+                    <a:fld id="{3BE97ED4-0F4F-414B-98A4-6B9D130A4292}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6183,7 +6183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B724FAB-7E04-41B2-AF6D-2B7A578B6C0E}" type="CELLRANGE">
+                    <a:fld id="{0DA98228-AA85-433A-B6EA-11689EC1E46D}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6216,7 +6216,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2687EC9-2CE6-4544-A68E-D2D1388D06CD}" type="CELLRANGE">
+                    <a:fld id="{BA31048E-1FDB-4B45-BEE5-4AB75FEB3D1E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6249,7 +6249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F31054E-2F41-4461-B021-53250A48012A}" type="CELLRANGE">
+                    <a:fld id="{45B6E480-D942-4BF6-96A7-41F6D8675B24}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6282,7 +6282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC6BD5FB-A02C-45BC-AEB4-56C86C3A40CF}" type="CELLRANGE">
+                    <a:fld id="{200052DD-3AA9-4E3A-9DE7-977B5F1F4804}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6315,7 +6315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AAB3979-6384-4A0F-9EF8-A38B09B3FAF4}" type="CELLRANGE">
+                    <a:fld id="{266FCD87-674F-4F9F-AFE5-04CF70015995}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6348,7 +6348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20878BBE-69B0-4A9E-A858-FFAEAFAAD4F5}" type="CELLRANGE">
+                    <a:fld id="{D8189EDA-1CCF-42C4-87E4-889B1D2A2CD5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6381,7 +6381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC4D99C3-89DA-4B76-9097-4FC4012F9548}" type="CELLRANGE">
+                    <a:fld id="{49FBFD7A-270E-407A-95A8-18BD16D374DC}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6414,7 +6414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B3B5F26-336D-4FB2-934D-2D7EF1F4FF77}" type="CELLRANGE">
+                    <a:fld id="{0CC28598-6859-4AA9-8951-580FCF9A2C1C}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6447,7 +6447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AC9D9DE-83CF-4CE0-ADF1-B45BA00545FD}" type="CELLRANGE">
+                    <a:fld id="{B25ED194-038C-4347-BCEB-4C0629EFABF3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6480,7 +6480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{499047B0-90BB-454E-8CB3-BB70CB408E21}" type="CELLRANGE">
+                    <a:fld id="{D847F8B1-439F-4EB0-BD82-0246A02C3712}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6513,7 +6513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B2D520C-E4BF-487D-AC4A-42A8B66BC2E5}" type="CELLRANGE">
+                    <a:fld id="{DA727988-7DEC-45B0-898C-07D5FBF03D89}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6546,7 +6546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F97B3224-5D14-45BD-931D-386AD34BF72E}" type="CELLRANGE">
+                    <a:fld id="{59708F89-3E50-4882-8F95-9EA489DD71A7}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6579,7 +6579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{769E01EC-E6B7-4112-B501-0F62B2B6D352}" type="CELLRANGE">
+                    <a:fld id="{7821F46B-731F-49ED-96B8-0B2D7D7C73EE}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6612,7 +6612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2ED946F8-6D6F-440D-A736-1DB7B2558551}" type="CELLRANGE">
+                    <a:fld id="{1706D964-C200-4CA2-B58F-25569047F088}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6645,7 +6645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B888DC87-8618-42EF-A3E9-84DE00798E61}" type="CELLRANGE">
+                    <a:fld id="{776AF490-CC8C-443E-A9EB-8A5272759DD8}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6678,7 +6678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B672711B-9515-4DA2-8CC3-05AB9BCCB8E3}" type="CELLRANGE">
+                    <a:fld id="{C3D31478-53FF-4C9A-A131-E4A67256F9CF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6711,7 +6711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2ED29AC8-7634-4D68-BF01-BAB8FA4693DA}" type="CELLRANGE">
+                    <a:fld id="{CB2D19F0-F036-41AB-83BE-F4F11E6EB02E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6744,7 +6744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F759486B-8C3D-4B84-8CBD-CA5718B26DC9}" type="CELLRANGE">
+                    <a:fld id="{0AB60738-3BF3-4759-9CC9-EC959A43B4F3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13775,8 +13775,8 @@
   </sheetPr>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" customHeight="1"/>
@@ -15579,6 +15579,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C27:C28"/>
@@ -15586,13 +15593,6 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16503,6 +16503,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
     <mergeCell ref="C22:C28"/>
     <mergeCell ref="C29:C40"/>
     <mergeCell ref="D29:D32"/>
@@ -16510,13 +16517,6 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vegan_WebProject/Gantt_chart_Team1.xlsx
+++ b/Vegan_WebProject/Gantt_chart_Team1.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C117F59D-15F9-4E0C-A586-B52416744955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김형근\Desktop\Vegan_WebProject\Vegan_WebProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419A57E-8B33-4617-A541-2944BFABC13F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" activeTab="2" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="13" r:id="rId1"/>
@@ -37,7 +42,6 @@
     <definedName name="스케쥴">[2]일정표!$P$6:$P$17,[2]일정표!$N$6:$N$17,[2]일정표!$L$6:$L$17,[2]일정표!$J$6:$J$17,[2]일정표!$H$6:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <oleSize ref="B6:G16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="270">
   <si>
     <t>총 진행률</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2031,10 +2035,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Member 구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SQL Table</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2162,10 +2162,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>패키지 구조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">src 컨트롤러 패키지 구조 변경 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2178,10 +2174,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Store 구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>추천기능, Store Model 구현</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2191,6 +2183,57 @@
   </si>
   <si>
     <t>Member View 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브 팀원들과 최신화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biz logic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store DAO, Controller 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.jsp구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board DAO, Controller 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>css, js 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeList페이지 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> loginForm 페이지 구현</t>
+  </si>
+  <si>
+    <t>index.jsp css,js 분리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeList페이지 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board DAO, Controller 마무리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package Architecture</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3237,7 +3280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3740,6 +3783,9 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4424,7 +4470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FC8D82F-9EA7-47FA-8F73-0614AB8F2AC9}" type="CELLRANGE">
+                    <a:fld id="{EF7D9515-85B2-4194-8281-9A4755B8AD77}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6150,7 +6196,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BE97ED4-0F4F-414B-98A4-6B9D130A4292}" type="CELLRANGE">
+                    <a:fld id="{D25EFB76-6023-472D-B833-C10AF1AD6C8E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6183,7 +6229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DA98228-AA85-433A-B6EA-11689EC1E46D}" type="CELLRANGE">
+                    <a:fld id="{3A176918-12B5-4216-AD65-2781196B0D58}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6216,7 +6262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA31048E-1FDB-4B45-BEE5-4AB75FEB3D1E}" type="CELLRANGE">
+                    <a:fld id="{B521B804-C520-47CD-B36B-FD825AB605DF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6249,7 +6295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45B6E480-D942-4BF6-96A7-41F6D8675B24}" type="CELLRANGE">
+                    <a:fld id="{59F7DDE2-3703-48CB-B64F-E09612BEC0F7}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6282,7 +6328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{200052DD-3AA9-4E3A-9DE7-977B5F1F4804}" type="CELLRANGE">
+                    <a:fld id="{7A51977F-C24A-4CFF-BC21-9EB1149B2562}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6315,7 +6361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{266FCD87-674F-4F9F-AFE5-04CF70015995}" type="CELLRANGE">
+                    <a:fld id="{AEC32B27-E42D-4B7D-A04A-DC12BEEBEF7F}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6348,7 +6394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8189EDA-1CCF-42C4-87E4-889B1D2A2CD5}" type="CELLRANGE">
+                    <a:fld id="{3E73BF16-6010-4B59-976B-913506489890}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6381,7 +6427,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49FBFD7A-270E-407A-95A8-18BD16D374DC}" type="CELLRANGE">
+                    <a:fld id="{DA647B8D-A64B-4F21-A735-05A503D8E309}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6414,7 +6460,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CC28598-6859-4AA9-8951-580FCF9A2C1C}" type="CELLRANGE">
+                    <a:fld id="{F133E05E-15FB-4C76-8F2A-C1D02C40CAAA}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6447,7 +6493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B25ED194-038C-4347-BCEB-4C0629EFABF3}" type="CELLRANGE">
+                    <a:fld id="{7EF6A209-5770-44E1-9299-D561199441C5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6480,7 +6526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D847F8B1-439F-4EB0-BD82-0246A02C3712}" type="CELLRANGE">
+                    <a:fld id="{A6C02437-8B44-4E33-B1A6-84BBBD9F4406}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6513,7 +6559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA727988-7DEC-45B0-898C-07D5FBF03D89}" type="CELLRANGE">
+                    <a:fld id="{76A06108-3114-42B7-A987-1C709F21E8B0}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6546,7 +6592,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59708F89-3E50-4882-8F95-9EA489DD71A7}" type="CELLRANGE">
+                    <a:fld id="{68979C85-023B-4D87-B0AB-E1349465E0B7}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6579,7 +6625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7821F46B-731F-49ED-96B8-0B2D7D7C73EE}" type="CELLRANGE">
+                    <a:fld id="{9757FEEF-00D6-492F-85CF-221F2C1FA289}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6612,7 +6658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1706D964-C200-4CA2-B58F-25569047F088}" type="CELLRANGE">
+                    <a:fld id="{E4917C87-8144-47D7-A503-1903416FBBCF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6645,7 +6691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{776AF490-CC8C-443E-A9EB-8A5272759DD8}" type="CELLRANGE">
+                    <a:fld id="{718B5A19-2F6C-459F-9C52-FFC5042C91B3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6678,7 +6724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3D31478-53FF-4C9A-A131-E4A67256F9CF}" type="CELLRANGE">
+                    <a:fld id="{430ED06F-5861-496C-BCC6-7F8C84C98C59}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6711,7 +6757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB2D19F0-F036-41AB-83BE-F4F11E6EB02E}" type="CELLRANGE">
+                    <a:fld id="{FC26D40F-6897-4857-8574-250495A08CB8}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6744,7 +6790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AB60738-3BF3-4759-9CC9-EC959A43B4F3}" type="CELLRANGE">
+                    <a:fld id="{ACF2612A-6BCA-48F3-8C6F-5A965498B990}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12884,10 +12930,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12895,50 +12941,50 @@
     <col min="1" max="1" width="3.09765625" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.59765625" style="152" customWidth="1"/>
-    <col min="4" max="4" width="14" style="152" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" style="152" customWidth="1"/>
     <col min="5" max="5" width="41.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="160" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="171" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="171"/>
+      <c r="D2" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="172"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="168">
+      <c r="B3" s="169">
         <v>44309</v>
       </c>
       <c r="C3" s="154">
         <v>1</v>
       </c>
       <c r="D3" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="155" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="169"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="44">
         <v>2</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="156" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="169"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
       <c r="E5" s="157" t="s">
@@ -12946,7 +12992,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="169"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="156" t="s">
@@ -12954,27 +13000,27 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="169"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="45">
         <v>3.1</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>214</v>
+      <c r="D7" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="170"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="158">
         <v>3.2</v>
       </c>
       <c r="D8" s="158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="159" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -12982,86 +13028,372 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="167" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="167" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="171" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="171"/>
+      <c r="D10" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="172"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="168">
+      <c r="B11" s="169">
         <v>44312</v>
       </c>
       <c r="C11" s="154">
         <v>1</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" s="155" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="169"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="44">
         <v>2</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="169"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="169"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="44">
         <v>3</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E14" s="156" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="169"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="45">
         <v>4</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E15" s="157" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="170"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="158"/>
       <c r="D16" s="158"/>
       <c r="E16" s="159"/>
     </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="172"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="169">
+        <v>44313</v>
+      </c>
+      <c r="C19" s="154">
+        <v>1</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="170"/>
+      <c r="C20" s="44">
+        <v>2</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="170"/>
+      <c r="C21" s="45">
+        <v>3</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="157" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="170"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="156" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="170"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="157"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="171"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="172"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="169">
+        <v>44314</v>
+      </c>
+      <c r="C27" s="154">
+        <v>1</v>
+      </c>
+      <c r="D27" s="154" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="155" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="170"/>
+      <c r="C28" s="44">
+        <v>2</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="156" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="170"/>
+      <c r="C29" s="45">
+        <v>3</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="157" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="170"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="156" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="170"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="157"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="171"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="159"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="172"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="169">
+        <v>44315</v>
+      </c>
+      <c r="C35" s="154">
+        <v>1</v>
+      </c>
+      <c r="D35" s="154" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="155" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="170"/>
+      <c r="C36" s="44">
+        <v>2</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" s="156" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="170"/>
+      <c r="C37" s="45">
+        <v>3</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="157" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="170"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="170"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="157"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="171"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="159"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="172"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="169">
+        <v>44316</v>
+      </c>
+      <c r="C43" s="154">
+        <v>1</v>
+      </c>
+      <c r="D43" s="154" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="155" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="170"/>
+      <c r="C44" s="44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="156" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="170"/>
+      <c r="C45" s="45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="157" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="170"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="156"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="170"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="157"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="171"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="159"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B40"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13286,7 +13618,7 @@
       </c>
     </row>
     <row r="6" spans="2:28" ht="25.8" customHeight="1" thickTop="1">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="173" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -13312,7 +13644,7 @@
       <c r="U6" s="52"/>
     </row>
     <row r="7" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B7" s="172"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="71" t="s">
         <v>25</v>
       </c>
@@ -13336,7 +13668,7 @@
       <c r="U7" s="52"/>
     </row>
     <row r="8" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B8" s="172"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="71" t="s">
         <v>34</v>
       </c>
@@ -13360,7 +13692,7 @@
       <c r="U8" s="52"/>
     </row>
     <row r="9" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="71" t="s">
         <v>26</v>
       </c>
@@ -13384,7 +13716,7 @@
       <c r="U9" s="52"/>
     </row>
     <row r="10" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B10" s="172"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="71" t="s">
         <v>54</v>
       </c>
@@ -13408,7 +13740,7 @@
       <c r="U10" s="52"/>
     </row>
     <row r="11" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B11" s="173"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="72" t="s">
         <v>143</v>
       </c>
@@ -13432,7 +13764,7 @@
       <c r="U11" s="58"/>
     </row>
     <row r="12" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="175" t="s">
         <v>148</v>
       </c>
       <c r="C12" s="73" t="s">
@@ -13458,7 +13790,7 @@
       <c r="U12" s="61"/>
     </row>
     <row r="13" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B13" s="172"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="71" t="s">
         <v>44</v>
       </c>
@@ -13482,7 +13814,7 @@
       <c r="U13" s="52"/>
     </row>
     <row r="14" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B14" s="175"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="74" t="s">
         <v>159</v>
       </c>
@@ -13506,7 +13838,7 @@
       <c r="U14" s="54"/>
     </row>
     <row r="15" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="175" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="73" t="s">
@@ -13532,7 +13864,7 @@
       <c r="U15" s="61"/>
     </row>
     <row r="16" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B16" s="176"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="75" t="s">
         <v>144</v>
       </c>
@@ -13556,7 +13888,7 @@
       <c r="U16" s="60"/>
     </row>
     <row r="17" spans="2:21" ht="25.8" customHeight="1">
-      <c r="B17" s="172"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="71" t="s">
         <v>142</v>
       </c>
@@ -13580,7 +13912,7 @@
       <c r="U17" s="52"/>
     </row>
     <row r="18" spans="2:21" ht="25.8" customHeight="1">
-      <c r="B18" s="173"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="72" t="s">
         <v>158</v>
       </c>
@@ -13604,7 +13936,7 @@
       <c r="U18" s="58"/>
     </row>
     <row r="19" spans="2:21" ht="25.8" customHeight="1">
-      <c r="B19" s="175"/>
+      <c r="B19" s="176"/>
       <c r="C19" s="74" t="s">
         <v>47</v>
       </c>
@@ -13773,9 +14105,9 @@
     <tabColor theme="7" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
+  <dimension ref="B1:AA48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -13794,9 +14126,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1" s="183"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -13910,14 +14242,14 @@
       <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="186" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="115" t="s">
         <v>120</v>
@@ -13928,7 +14260,7 @@
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="148" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J5" s="148" t="s">
         <v>200</v>
@@ -13936,10 +14268,10 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="118" t="s">
         <v>118</v>
@@ -13950,7 +14282,7 @@
       </c>
       <c r="H6" s="80"/>
       <c r="I6" s="147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J6" s="147" t="s">
         <v>202</v>
@@ -13958,10 +14290,10 @@
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="118" t="s">
         <v>116</v>
@@ -13972,7 +14304,7 @@
       </c>
       <c r="H7" s="80"/>
       <c r="I7" s="147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J7" s="147" t="s">
         <v>204</v>
@@ -13980,13 +14312,13 @@
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="2:27" s="161" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="117" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="164"/>
       <c r="G8" s="162">
@@ -13998,10 +14330,10 @@
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="117" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" s="121" t="s">
         <v>114</v>
@@ -14016,14 +14348,14 @@
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="188" t="s">
+      <c r="C10" s="189" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="128" t="s">
         <v>111</v>
@@ -14038,10 +14370,10 @@
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="131" t="s">
         <v>110</v>
@@ -14056,10 +14388,10 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B12" s="189"/>
-      <c r="C12" s="190"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" s="134" t="s">
         <v>108</v>
@@ -14074,12 +14406,12 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B13" s="189"/>
-      <c r="C13" s="188" t="s">
+      <c r="B13" s="190"/>
+      <c r="C13" s="189" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="128" t="s">
         <v>105</v>
@@ -14094,10 +14426,10 @@
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
       <c r="D14" s="130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="131" t="s">
         <v>103</v>
@@ -14112,10 +14444,10 @@
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="131" t="s">
         <v>101</v>
@@ -14130,10 +14462,10 @@
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B16" s="189"/>
-      <c r="C16" s="190"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" s="134" t="s">
         <v>99</v>
@@ -14148,14 +14480,14 @@
       <c r="K16" s="80"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="178" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="181" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>96</v>
@@ -14170,10 +14502,10 @@
       <c r="K17" s="80"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="178"/>
-      <c r="C18" s="182"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" s="140" t="s">
         <v>94</v>
@@ -14188,10 +14520,10 @@
       <c r="K18" s="80"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="178"/>
-      <c r="C19" s="182"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="140" t="s">
         <v>92</v>
@@ -14206,10 +14538,10 @@
       <c r="K19" s="80"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="178"/>
-      <c r="C20" s="182"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E20" s="140" t="s">
         <v>90</v>
@@ -14224,10 +14556,10 @@
       <c r="K20" s="80"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="178"/>
-      <c r="C21" s="181"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="139" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="143" t="s">
         <v>88</v>
@@ -14242,12 +14574,12 @@
       <c r="K21" s="80"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="178"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="179"/>
+      <c r="C22" s="181" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" s="137" t="s">
         <v>85</v>
@@ -14262,10 +14594,10 @@
       <c r="K22" s="80"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="178"/>
-      <c r="C23" s="182"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="139" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="150" t="s">
         <v>209</v>
@@ -14280,10 +14612,10 @@
       <c r="K23" s="80"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="178"/>
-      <c r="C24" s="181"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E24" s="143" t="s">
         <v>83</v>
@@ -14298,15 +14630,15 @@
       <c r="K24" s="80"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="178"/>
-      <c r="C25" s="180" t="s">
+      <c r="B25" s="179"/>
+      <c r="C25" s="181" t="s">
         <v>207</v>
       </c>
       <c r="D25" s="139" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E25" s="137" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="138"/>
       <c r="G25" s="139">
@@ -14318,10 +14650,10 @@
       <c r="K25" s="80"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="179"/>
-      <c r="C26" s="181"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="182"/>
       <c r="D26" s="139" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" s="143" t="s">
         <v>59</v>
@@ -14449,10 +14781,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="193" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="106" t="s">
@@ -14471,8 +14803,8 @@
       <c r="K2" s="80"/>
     </row>
     <row r="3" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
       <c r="D3" s="98" t="s">
         <v>190</v>
       </c>
@@ -14489,8 +14821,8 @@
       <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
       <c r="D4" s="98" t="s">
         <v>191</v>
       </c>
@@ -14507,8 +14839,8 @@
       <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B5" s="194"/>
-      <c r="C5" s="193"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="194"/>
       <c r="D5" s="102" t="s">
         <v>192</v>
       </c>
@@ -14525,8 +14857,8 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="194"/>
-      <c r="C6" s="192" t="s">
+      <c r="B6" s="195"/>
+      <c r="C6" s="193" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="106" t="s">
@@ -14545,8 +14877,8 @@
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
       <c r="D7" s="98" t="s">
         <v>194</v>
       </c>
@@ -14563,8 +14895,8 @@
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
       <c r="D8" s="98" t="s">
         <v>195</v>
       </c>
@@ -14581,8 +14913,8 @@
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B9" s="194"/>
-      <c r="C9" s="193"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="194"/>
       <c r="D9" s="102" t="s">
         <v>154</v>
       </c>
@@ -14599,7 +14931,7 @@
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B10" s="194"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="83" t="s">
         <v>65</v>
       </c>
@@ -14619,8 +14951,8 @@
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B11" s="194"/>
-      <c r="C11" s="192" t="s">
+      <c r="B11" s="195"/>
+      <c r="C11" s="193" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="106" t="s">
@@ -14639,8 +14971,8 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B12" s="194"/>
-      <c r="C12" s="193"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="102" t="s">
         <v>156</v>
       </c>
@@ -14657,7 +14989,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="2:11" s="114" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="193"/>
+      <c r="B13" s="194"/>
       <c r="C13" s="83" t="s">
         <v>58</v>
       </c>
@@ -14678,7 +15010,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -14702,7 +15034,7 @@
     <tabColor theme="0" tint="-0.14999847407452621"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="B1:AA44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -14723,9 +15055,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1" s="183"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -14839,10 +15171,10 @@
       <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="192" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="117" t="s">
@@ -14865,8 +15197,8 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="120" t="s">
         <v>167</v>
       </c>
@@ -14887,8 +15219,8 @@
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="120" t="s">
         <v>168</v>
       </c>
@@ -14909,8 +15241,8 @@
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="120" t="s">
         <v>169</v>
       </c>
@@ -14931,8 +15263,8 @@
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B9" s="186"/>
-      <c r="C9" s="187"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="123" t="s">
         <v>170</v>
       </c>
@@ -14949,7 +15281,7 @@
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B10" s="186"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="124" t="s">
         <v>123</v>
       </c>
@@ -14969,8 +15301,8 @@
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B11" s="186"/>
-      <c r="C11" s="185" t="s">
+      <c r="B11" s="187"/>
+      <c r="C11" s="186" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="117" t="s">
@@ -14989,8 +15321,8 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="120" t="s">
         <v>173</v>
       </c>
@@ -15007,8 +15339,8 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="187"/>
       <c r="D13" s="120" t="s">
         <v>174</v>
       </c>
@@ -15025,8 +15357,8 @@
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
       <c r="D14" s="123" t="s">
         <v>175</v>
       </c>
@@ -15043,10 +15375,10 @@
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="189" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="130" t="s">
@@ -15065,8 +15397,8 @@
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B16" s="189"/>
-      <c r="C16" s="189"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="133" t="s">
         <v>177</v>
       </c>
@@ -15083,8 +15415,8 @@
       <c r="K16" s="80"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B17" s="189"/>
-      <c r="C17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="191"/>
       <c r="D17" s="136" t="s">
         <v>178</v>
       </c>
@@ -15101,8 +15433,8 @@
       <c r="K17" s="80"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="189"/>
-      <c r="C18" s="188" t="s">
+      <c r="B18" s="190"/>
+      <c r="C18" s="189" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="130" t="s">
@@ -15121,8 +15453,8 @@
       <c r="K18" s="80"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="189"/>
-      <c r="C19" s="189"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="133" t="s">
         <v>180</v>
       </c>
@@ -15139,8 +15471,8 @@
       <c r="K19" s="80"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="189"/>
-      <c r="C20" s="189"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
       <c r="D20" s="133" t="s">
         <v>181</v>
       </c>
@@ -15157,8 +15489,8 @@
       <c r="K20" s="80"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="136" t="s">
         <v>182</v>
       </c>
@@ -15175,10 +15507,10 @@
       <c r="K21" s="80"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="196" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="199" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="139" t="s">
@@ -15197,8 +15529,8 @@
       <c r="K22" s="80"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
       <c r="D23" s="142" t="s">
         <v>184</v>
       </c>
@@ -15215,8 +15547,8 @@
       <c r="K23" s="80"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
       <c r="D24" s="142" t="s">
         <v>185</v>
       </c>
@@ -15233,8 +15565,8 @@
       <c r="K24" s="80"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
       <c r="D25" s="142" t="s">
         <v>186</v>
       </c>
@@ -15251,8 +15583,8 @@
       <c r="K25" s="80"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="196"/>
-      <c r="C26" s="197"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="198"/>
       <c r="D26" s="145" t="s">
         <v>187</v>
       </c>
@@ -15269,8 +15601,8 @@
       <c r="K26" s="80"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="196"/>
-      <c r="C27" s="198" t="s">
+      <c r="B27" s="197"/>
+      <c r="C27" s="199" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="139" t="s">
@@ -15287,8 +15619,8 @@
       <c r="K27" s="80"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="198"/>
       <c r="D28" s="145" t="s">
         <v>188</v>
       </c>
@@ -15305,10 +15637,10 @@
       <c r="K28" s="80"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="192" t="s">
+      <c r="B29" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="193" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="106" t="s">
@@ -15327,8 +15659,8 @@
       <c r="K29" s="80"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="194"/>
-      <c r="C30" s="194"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
       <c r="D30" s="98" t="s">
         <v>190</v>
       </c>
@@ -15345,8 +15677,8 @@
       <c r="K30" s="80"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="195"/>
       <c r="D31" s="98" t="s">
         <v>191</v>
       </c>
@@ -15363,8 +15695,8 @@
       <c r="K31" s="80"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="194"/>
-      <c r="C32" s="193"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="194"/>
       <c r="D32" s="102" t="s">
         <v>192</v>
       </c>
@@ -15381,8 +15713,8 @@
       <c r="K32" s="80"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="194"/>
-      <c r="C33" s="192" t="s">
+      <c r="B33" s="195"/>
+      <c r="C33" s="193" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="106" t="s">
@@ -15401,8 +15733,8 @@
       <c r="K33" s="80"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="194"/>
-      <c r="C34" s="194"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="98" t="s">
         <v>194</v>
       </c>
@@ -15419,8 +15751,8 @@
       <c r="K34" s="80"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
       <c r="D35" s="98" t="s">
         <v>195</v>
       </c>
@@ -15437,8 +15769,8 @@
       <c r="K35" s="80"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="194"/>
-      <c r="C36" s="193"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="194"/>
       <c r="D36" s="102" t="s">
         <v>154</v>
       </c>
@@ -15455,7 +15787,7 @@
       <c r="K36" s="80"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="194"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="83" t="s">
         <v>65</v>
       </c>
@@ -15475,8 +15807,8 @@
       <c r="K37" s="80"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="194"/>
-      <c r="C38" s="192" t="s">
+      <c r="B38" s="195"/>
+      <c r="C38" s="193" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="106" t="s">
@@ -15495,8 +15827,8 @@
       <c r="K38" s="80"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="194"/>
-      <c r="C39" s="193"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="194"/>
       <c r="D39" s="102" t="s">
         <v>156</v>
       </c>
@@ -15513,7 +15845,7 @@
       <c r="K39" s="80"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="193"/>
+      <c r="B40" s="194"/>
       <c r="C40" s="83" t="s">
         <v>58</v>
       </c>
@@ -15579,6 +15911,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:C9"/>
@@ -15586,13 +15925,6 @@
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15605,7 +15937,7 @@
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB44"/>
+  <dimension ref="B1:AB44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -15624,10 +15956,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="15.75" customHeight="1">
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
@@ -15745,10 +16077,10 @@
       <c r="B5" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="200" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="200" t="s">
+      <c r="D5" s="201" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="103" t="s">
@@ -15768,8 +16100,8 @@
     </row>
     <row r="6" spans="2:28" ht="15.75" customHeight="1">
       <c r="B6" s="112"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="95" t="s">
         <v>131</v>
       </c>
@@ -15787,8 +16119,8 @@
     </row>
     <row r="7" spans="2:28" ht="15.75" customHeight="1">
       <c r="B7" s="112"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="201"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="95" t="s">
         <v>129</v>
       </c>
@@ -15806,8 +16138,8 @@
     </row>
     <row r="8" spans="2:28" ht="15.75" customHeight="1">
       <c r="B8" s="112"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="201"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="95" t="s">
         <v>127</v>
       </c>
@@ -15825,8 +16157,8 @@
     </row>
     <row r="9" spans="2:28" ht="15.75" customHeight="1">
       <c r="B9" s="112"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="202"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="203"/>
       <c r="E9" s="99" t="s">
         <v>125</v>
       </c>
@@ -15844,7 +16176,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="112"/>
-      <c r="C10" s="194"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="87" t="s">
         <v>123</v>
       </c>
@@ -15865,8 +16197,8 @@
     </row>
     <row r="11" spans="2:28" ht="15.75" customHeight="1">
       <c r="B11" s="112"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="200" t="s">
+      <c r="C11" s="195"/>
+      <c r="D11" s="201" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="103" t="s">
@@ -15886,8 +16218,8 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1">
       <c r="B12" s="112"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="201"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="95" t="s">
         <v>119</v>
       </c>
@@ -15905,8 +16237,8 @@
     </row>
     <row r="13" spans="2:28" ht="15.75" customHeight="1">
       <c r="B13" s="112"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="201"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="202"/>
       <c r="E13" s="95" t="s">
         <v>117</v>
       </c>
@@ -15924,8 +16256,8 @@
     </row>
     <row r="14" spans="2:28" ht="15.75" customHeight="1">
       <c r="B14" s="112"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="203"/>
       <c r="E14" s="99" t="s">
         <v>115</v>
       </c>
@@ -15943,10 +16275,10 @@
     </row>
     <row r="15" spans="2:28" ht="15.75" customHeight="1">
       <c r="B15" s="112"/>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="192" t="s">
+      <c r="D15" s="193" t="s">
         <v>113</v>
       </c>
       <c r="E15" s="91" t="s">
@@ -15966,8 +16298,8 @@
     </row>
     <row r="16" spans="2:28" ht="15.75" customHeight="1">
       <c r="B16" s="112"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="95" t="s">
         <v>110</v>
       </c>
@@ -15985,8 +16317,8 @@
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1">
       <c r="B17" s="112"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="193"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="194"/>
       <c r="E17" s="99" t="s">
         <v>109</v>
       </c>
@@ -16004,8 +16336,8 @@
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1">
       <c r="B18" s="112"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194" t="s">
+      <c r="C18" s="195"/>
+      <c r="D18" s="195" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="91" t="s">
@@ -16025,8 +16357,8 @@
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1">
       <c r="B19" s="112"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="95" t="s">
         <v>104</v>
       </c>
@@ -16044,8 +16376,8 @@
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1">
       <c r="B20" s="112"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="95" t="s">
         <v>102</v>
       </c>
@@ -16063,8 +16395,8 @@
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1">
       <c r="B21" s="112"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="193"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="194"/>
       <c r="E21" s="99" t="s">
         <v>100</v>
       </c>
@@ -16082,10 +16414,10 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="112"/>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="193" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="91" t="s">
@@ -16105,8 +16437,8 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="112"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="95" t="s">
         <v>95</v>
       </c>
@@ -16124,8 +16456,8 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1">
       <c r="B24" s="112"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="95" t="s">
         <v>93</v>
       </c>
@@ -16143,8 +16475,8 @@
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1">
       <c r="B25" s="112"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="95" t="s">
         <v>91</v>
       </c>
@@ -16162,8 +16494,8 @@
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1">
       <c r="B26" s="112"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
       <c r="E26" s="99" t="s">
         <v>89</v>
       </c>
@@ -16181,8 +16513,8 @@
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1">
       <c r="B27" s="112"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="192" t="s">
+      <c r="C27" s="195"/>
+      <c r="D27" s="193" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="91" t="s">
@@ -16200,8 +16532,8 @@
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1">
       <c r="B28" s="112"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
       <c r="E28" s="99" t="s">
         <v>84</v>
       </c>
@@ -16219,10 +16551,10 @@
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1">
       <c r="B29" s="112"/>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="192" t="s">
+      <c r="D29" s="193" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="91" t="s">
@@ -16242,8 +16574,8 @@
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1">
       <c r="B30" s="112"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="95" t="s">
         <v>80</v>
       </c>
@@ -16261,8 +16593,8 @@
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1">
       <c r="B31" s="112"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
       <c r="E31" s="95" t="s">
         <v>78</v>
       </c>
@@ -16280,8 +16612,8 @@
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1">
       <c r="B32" s="112"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="193"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="194"/>
       <c r="E32" s="99" t="s">
         <v>76</v>
       </c>
@@ -16299,8 +16631,8 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" customHeight="1">
       <c r="B33" s="112"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="192" t="s">
+      <c r="C33" s="195"/>
+      <c r="D33" s="193" t="s">
         <v>74</v>
       </c>
       <c r="E33" s="91" t="s">
@@ -16320,8 +16652,8 @@
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
       <c r="B34" s="112"/>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
       <c r="E34" s="95" t="s">
         <v>71</v>
       </c>
@@ -16339,8 +16671,8 @@
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
       <c r="B35" s="112"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
       <c r="E35" s="95" t="s">
         <v>69</v>
       </c>
@@ -16358,8 +16690,8 @@
     </row>
     <row r="36" spans="2:12" ht="15.75" customHeight="1">
       <c r="B36" s="112"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="193"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="194"/>
       <c r="E36" s="99" t="s">
         <v>67</v>
       </c>
@@ -16377,7 +16709,7 @@
     </row>
     <row r="37" spans="2:12" ht="15.75" customHeight="1">
       <c r="B37" s="112"/>
-      <c r="C37" s="194"/>
+      <c r="C37" s="195"/>
       <c r="D37" s="83" t="s">
         <v>65</v>
       </c>
@@ -16396,8 +16728,8 @@
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1">
       <c r="B38" s="112"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="192" t="s">
+      <c r="C38" s="195"/>
+      <c r="D38" s="193" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="91" t="s">
@@ -16417,8 +16749,8 @@
     </row>
     <row r="39" spans="2:12" ht="15.75" customHeight="1">
       <c r="B39" s="112"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="193"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="194"/>
       <c r="E39" s="99" t="s">
         <v>60</v>
       </c>
@@ -16436,7 +16768,7 @@
     </row>
     <row r="40" spans="2:12" ht="15.75" customHeight="1">
       <c r="B40" s="113"/>
-      <c r="C40" s="193"/>
+      <c r="C40" s="194"/>
       <c r="D40" s="83" t="s">
         <v>58</v>
       </c>
@@ -16503,6 +16835,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="D5:D9"/>
@@ -16510,13 +16849,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16599,20 +16931,20 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="18" customHeight="1" thickBot="1">
-      <c r="G4" s="203" t="s">
+      <c r="G4" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="L4" s="204" t="s">
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="L4" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
       <c r="AA4" s="35">
         <f>MIN(G6:G25,L6:L25)-2</f>
         <v>44304</v>

--- a/Vegan_WebProject/Gantt_chart_Team1.xlsx
+++ b/Vegan_WebProject/Gantt_chart_Team1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C117F59D-15F9-4E0C-A586-B52416744955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" activeTab="2" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
+    <workbookView xWindow="0" yWindow="2676" windowWidth="17280" windowHeight="4272" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="13" r:id="rId1"/>
@@ -36,10 +35,10 @@
     <definedName name="달력색상1">[1]달력!$B$5:$AJ$5,[1]달력!$AL$3</definedName>
     <definedName name="스케쥴">[2]일정표!$P$6:$P$17,[2]일정표!$N$6:$N$17,[2]일정표!$L$6:$L$17,[2]일정표!$J$6:$J$17,[2]일정표!$H$6:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <oleSize ref="B6:G16"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:L12"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2197,7 +2196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
@@ -3858,7 +3857,7 @@
   <cellStyles count="4">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{47D0D52B-BB22-4DE7-B9B7-CD92DF0A08AF}"/>
+    <cellStyle name="표준 2" xfId="2"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -3890,18 +3889,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3910,16 +3899,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1267856407942651"/>
+          <c:x val="0.12678564079426513"/>
           <c:y val="8.5166449074341247E-2"/>
-          <c:w val="0.84625083644156796"/>
-          <c:h val="0.91483355092565877"/>
+          <c:w val="0.84625083644156818"/>
+          <c:h val="0.91483355092565866"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3941,7 +3929,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="plus"/>
             <c:errValType val="cust"/>
@@ -3953,10 +3940,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -4022,10 +4009,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -4214,7 +4201,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72ED-4975-AC56-44172DBF2236}"/>
             </c:ext>
@@ -4243,7 +4230,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Milestone!$C$6:$C$25</c:f>
@@ -4316,10 +4302,10 @@
                 <c:formatCode>0;\-0;;</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4378,28 +4364,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-72ED-4975-AC56-44172DBF2236}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="80"/>
         <c:overlap val="100"/>
-        <c:axId val="1937401823"/>
-        <c:axId val="2035918559"/>
+        <c:axId val="107211392"/>
+        <c:axId val="137503104"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -4434,13 +4412,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -4463,13 +4435,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4491,13 +4457,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4519,13 +4479,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4547,13 +4501,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4575,13 +4523,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4603,13 +4545,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4631,13 +4567,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4659,13 +4589,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4687,13 +4611,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4715,13 +4633,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4743,13 +4655,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4771,13 +4677,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4799,13 +4699,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4827,13 +4721,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4855,13 +4743,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4883,13 +4765,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4911,13 +4787,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4939,13 +4809,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4967,13 +4831,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4983,6 +4841,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5010,14 +4869,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -5049,8 +4901,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
@@ -5064,19 +4914,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -5085,13 +4935,13 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0</c:v>
@@ -5112,13 +4962,13 @@
                     <c:v>-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>11</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>0</c:v>
@@ -5133,19 +4983,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -5154,13 +5004,13 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0</c:v>
@@ -5181,13 +5031,13 @@
                     <c:v>-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>11</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>0</c:v>
@@ -5343,8 +5193,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Milestone!$T$5</c15:f>
@@ -5395,13 +5244,7 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
@@ -5411,6 +5254,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5440,13 +5284,7 @@
                 <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5604,8 +5442,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Milestone!$T$5</c15:f>
@@ -6087,8 +5924,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-72ED-4975-AC56-44172DBF2236}"/>
             </c:ext>
@@ -6127,13 +5963,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6159,13 +5989,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6192,13 +6016,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6225,13 +6043,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6258,13 +6070,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6291,13 +6097,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6324,13 +6124,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6357,13 +6151,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6390,13 +6178,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6423,13 +6205,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6456,13 +6232,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6489,13 +6259,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6522,13 +6286,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6555,13 +6313,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6588,13 +6340,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6621,13 +6367,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6654,13 +6394,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6687,13 +6421,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6720,13 +6448,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6753,13 +6475,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6770,6 +6486,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6799,14 +6516,7 @@
                 <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -6834,49 +6544,49 @@
                 <c:formatCode>m"월"\ d"일";;;</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44309</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44308</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44307</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44314</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44316</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44317</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44318</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44319</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44320</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -6965,8 +6675,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Milestone!$Y$6:$Y$25</c15:f>
@@ -7040,27 +6749,18 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2035909823"/>
-        <c:axId val="2035893183"/>
+        <c:dLbls/>
+        <c:axId val="137506176"/>
+        <c:axId val="137504640"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="1937401823"/>
+        <c:axId val="107211392"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7095,20 +6795,18 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2035918559"/>
+        <c:crossAx val="137503104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2035918559"/>
+        <c:axId val="137503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="44305"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7126,7 +6824,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="m&quot;월&quot;\ d&quot;일&quot;;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -7155,13 +6852,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1937401823"/>
+        <c:crossAx val="107211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2035893183"/>
+        <c:axId val="137504640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -7169,25 +6866,21 @@
         <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2035909823"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="137506176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2035909823"/>
+        <c:axId val="137506176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;월&quot;\ d&quot;일&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2035893183"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="137504640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7201,14 +6894,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7232,7 +6924,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7803,7 +7495,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427CB6D3-7DE5-4EFF-8675-E3A2ED0859E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{427CB6D3-7DE5-4EFF-8675-E3A2ED0859E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7812,10 +7504,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7859,7 +7551,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFD42F1-2AEF-42C2-A9EB-33346C0112B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEFD42F1-2AEF-42C2-A9EB-33346C0112B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7868,10 +7560,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7915,7 +7607,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99EF186-EAC3-4F27-9E2B-4447249D86FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99EF186-EAC3-4F27-9E2B-4447249D86FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7924,10 +7616,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7971,7 +7663,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F2496-749E-452A-B8BD-E53C4F878D39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F6F2496-749E-452A-B8BD-E53C4F878D39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7980,10 +7672,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8027,7 +7719,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677D13A9-7E43-4816-BE1D-CB27FA838BBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{677D13A9-7E43-4816-BE1D-CB27FA838BBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8036,10 +7728,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8083,7 +7775,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D67BC8-CD18-4EE7-A269-B02B81EB867F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45D67BC8-CD18-4EE7-A269-B02B81EB867F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8092,10 +7784,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8139,7 +7831,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A433ED-4EF8-4B0C-8686-581EFB185AC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A433ED-4EF8-4B0C-8686-581EFB185AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8148,10 +7840,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8195,7 +7887,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DE3CBD-2424-4AB6-BD4F-DD11BE163639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3DE3CBD-2424-4AB6-BD4F-DD11BE163639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8204,10 +7896,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8251,7 +7943,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D293D003-67E5-4F0D-94BC-9A6077944892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D293D003-67E5-4F0D-94BC-9A6077944892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8260,10 +7952,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8307,7 +7999,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E059B5A4-67F2-46E2-AC92-14FB281E2977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E059B5A4-67F2-46E2-AC92-14FB281E2977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8316,10 +8008,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8363,7 +8055,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1196A87-2DBB-4028-9693-CE67F61AC8D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1196A87-2DBB-4028-9693-CE67F61AC8D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8372,10 +8064,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8419,7 +8111,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A530A24A-0D9B-42BA-8119-2D4EC652BEF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A530A24A-0D9B-42BA-8119-2D4EC652BEF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8428,10 +8120,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8475,7 +8167,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6BC3D5-558A-485F-ABCA-EDC92D0DD390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC6BC3D5-558A-485F-ABCA-EDC92D0DD390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8484,10 +8176,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8531,7 +8223,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA7064A-C1D2-4C25-AEDA-C5687FF6E100}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FA7064A-C1D2-4C25-AEDA-C5687FF6E100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8540,10 +8232,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8587,7 +8279,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD89023-27C7-4B70-9173-E50D9CD22386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BD89023-27C7-4B70-9173-E50D9CD22386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8596,10 +8288,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8643,7 +8335,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E364D87C-74F3-4392-89D0-1433A3A89781}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E364D87C-74F3-4392-89D0-1433A3A89781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8652,10 +8344,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8699,7 +8391,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEE1461-7676-4A98-A531-9D555E0E4102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EEE1461-7676-4A98-A531-9D555E0E4102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8708,10 +8400,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8755,7 +8447,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06FE4DE-1B31-4F29-8A8B-6AE199BBA5A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06FE4DE-1B31-4F29-8A8B-6AE199BBA5A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8764,10 +8456,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8811,7 +8503,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEA58EB-675C-4B11-ABE1-76263B67FFF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAEA58EB-675C-4B11-ABE1-76263B67FFF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8820,10 +8512,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8867,7 +8559,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520432BA-1292-43CC-B5E1-3BB34A64EA08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{520432BA-1292-43CC-B5E1-3BB34A64EA08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8876,10 +8568,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8923,7 +8615,7 @@
         <xdr:cNvPr id="22" name="그림 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF3F12D-AEBA-45D2-870E-9E9F0AFF39C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DF3F12D-AEBA-45D2-870E-9E9F0AFF39C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8932,10 +8624,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8979,7 +8671,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CF62FC-BC25-4155-A0D2-725434B69D72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4CF62FC-BC25-4155-A0D2-725434B69D72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8988,10 +8680,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9035,7 +8727,7 @@
         <xdr:cNvPr id="24" name="그림 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30ED4C2-F519-4869-87B2-7FA504AF7826}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C30ED4C2-F519-4869-87B2-7FA504AF7826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9044,10 +8736,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9091,7 +8783,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1108BA06-E289-443D-8520-8B99F3A6E874}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1108BA06-E289-443D-8520-8B99F3A6E874}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9100,10 +8792,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9147,7 +8839,7 @@
         <xdr:cNvPr id="26" name="그림 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0060C7F-7EA8-4088-9074-6AB4ED01C33C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0060C7F-7EA8-4088-9074-6AB4ED01C33C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9156,10 +8848,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9203,7 +8895,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618D0E95-DFD2-4EE7-BA9D-E865A2B2C75B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{618D0E95-DFD2-4EE7-BA9D-E865A2B2C75B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9212,10 +8904,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9259,7 +8951,7 @@
         <xdr:cNvPr id="28" name="그림 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4937973-55DC-48EF-ACA9-FEAFBFEC1043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4937973-55DC-48EF-ACA9-FEAFBFEC1043}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9268,10 +8960,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9315,7 +9007,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C878E76-2704-41E4-9DA2-E33C60328399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C878E76-2704-41E4-9DA2-E33C60328399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9324,10 +9016,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9371,7 +9063,7 @@
         <xdr:cNvPr id="30" name="그림 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ACE7D3-7F58-4541-BA9B-68C86B2BA05F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5ACE7D3-7F58-4541-BA9B-68C86B2BA05F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9380,10 +9072,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9427,7 +9119,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE56274-EF8F-457C-8A21-124A24E9D313}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FE56274-EF8F-457C-8A21-124A24E9D313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9436,10 +9128,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9483,7 +9175,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1E9ACD-BFCF-459B-88CC-65415C3BBE20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC1E9ACD-BFCF-459B-88CC-65415C3BBE20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9492,10 +9184,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9539,7 +9231,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4884924-58C5-4BAF-8C9C-AC76D5B58FDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4884924-58C5-4BAF-8C9C-AC76D5B58FDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9548,10 +9240,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9595,7 +9287,7 @@
         <xdr:cNvPr id="34" name="그림 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA04292-FDE2-4FE9-B807-A4E1BA6B6A97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA04292-FDE2-4FE9-B807-A4E1BA6B6A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9604,10 +9296,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9651,7 +9343,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A19F7F1-58BF-4406-9BF6-EB0E47B6813B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A19F7F1-58BF-4406-9BF6-EB0E47B6813B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9660,10 +9352,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9707,7 +9399,7 @@
         <xdr:cNvPr id="36" name="그림 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CBBBD4-C7B0-4DD2-A4F5-532ABBA63057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4CBBBD4-C7B0-4DD2-A4F5-532ABBA63057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9716,10 +9408,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9763,7 +9455,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACB7CE3-A56D-4A5C-936C-F2FED0199304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AACB7CE3-A56D-4A5C-936C-F2FED0199304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9772,10 +9464,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9819,7 +9511,7 @@
         <xdr:cNvPr id="38" name="그림 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E2680D-5BA3-4A29-954C-E7EA9F1B8DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E2680D-5BA3-4A29-954C-E7EA9F1B8DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9828,10 +9520,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9875,7 +9567,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02B9FAC-A13F-4C00-B7E8-0EA1D7D5BE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D02B9FAC-A13F-4C00-B7E8-0EA1D7D5BE6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9884,10 +9576,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9931,7 +9623,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067C9E77-E279-45DB-B74A-DE4BBAAF7E4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{067C9E77-E279-45DB-B74A-DE4BBAAF7E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9940,10 +9632,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9992,7 +9684,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B80D721-DEB2-4EB6-A0A4-5063801384F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B80D721-DEB2-4EB6-A0A4-5063801384F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10011,7 +9703,7 @@
           <xdr:cNvPr id="3" name="그룹 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9010A2F1-DA30-460D-A02C-675CFB2DCFCE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9010A2F1-DA30-460D-A02C-675CFB2DCFCE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10030,7 +9722,7 @@
             <xdr:cNvPr id="16" name="차트 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07897EE-A317-4C62-BE64-2B584E96250B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A07897EE-A317-4C62-BE64-2B584E96250B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10053,7 +9745,7 @@
             <xdr:cNvPr id="17" name="직선 연결선 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291D0946-6488-4BFA-83DA-7D0719A0737E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{291D0946-6488-4BFA-83DA-7D0719A0737E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10095,7 +9787,7 @@
             <xdr:cNvPr id="18" name="직선 연결선 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F715953-F645-4446-85AA-86303C63EDAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F715953-F645-4446-85AA-86303C63EDAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10138,7 +9830,7 @@
           <xdr:cNvPr id="4" name="그룹 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85785B5C-ED22-41A7-8F42-93D037F5ECEC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85785B5C-ED22-41A7-8F42-93D037F5ECEC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10157,7 +9849,7 @@
             <xdr:cNvPr id="14" name="직사각형 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAD0027-823E-4742-9E29-E9CACF65079D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EAD0027-823E-4742-9E29-E9CACF65079D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10211,7 +9903,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2059425C-B7E2-4328-8ECC-A40D97451F64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2059425C-B7E2-4328-8ECC-A40D97451F64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10261,7 +9953,7 @@
           <xdr:cNvPr id="5" name="그룹 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DAC7F1-6BD6-4842-B9A6-B7CAE482B0B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41DAC7F1-6BD6-4842-B9A6-B7CAE482B0B6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10280,7 +9972,7 @@
             <xdr:cNvPr id="12" name="직사각형 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA22F6D4-F427-4630-B4FC-52D1003A6950}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA22F6D4-F427-4630-B4FC-52D1003A6950}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10333,7 +10025,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922520B-7EB7-4C21-B342-BA65741B2225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922520B-7EB7-4C21-B342-BA65741B2225}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10383,7 +10075,7 @@
           <xdr:cNvPr id="6" name="그룹 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFE84A-6372-4477-A969-BF2D14CDF635}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87CFE84A-6372-4477-A969-BF2D14CDF635}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10402,7 +10094,7 @@
             <xdr:cNvPr id="10" name="직사각형 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4421818-3B97-4237-87A5-6BF8D37E6E1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4421818-3B97-4237-87A5-6BF8D37E6E1B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10453,7 +10145,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83506157-076A-4FE5-843D-92D435A19954}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83506157-076A-4FE5-843D-92D435A19954}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10503,7 +10195,7 @@
           <xdr:cNvPr id="7" name="그룹 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A163F3DE-6F62-4FD3-A4E3-025967E70EEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A163F3DE-6F62-4FD3-A4E3-025967E70EEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10522,7 +10214,7 @@
             <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F23F58-FF1F-45F4-AFCE-85616595C516}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7F23F58-FF1F-45F4-AFCE-85616595C516}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10563,7 +10255,7 @@
             <xdr:cNvPr id="9" name="TextBox 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC16D712-F856-4131-B4B7-384C14FBBD24}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC16D712-F856-4131-B4B7-384C14FBBD24}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10629,7 +10321,7 @@
         <xdr:cNvPr id="19" name="사각형: 둥근 모서리 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61000F22-44EF-4536-A3D6-D3481FD58700}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61000F22-44EF-4536-A3D6-D3481FD58700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10680,7 +10372,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1조 웹프로젝트 (4월 20일~5월 4일)</a:t>
+            <a:t>#NAME?</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -10710,7 +10402,7 @@
         <xdr:cNvPr id="25" name="직선 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0A8686-0A1F-49AE-B555-EE9DA4ADA4AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B0A8686-0A1F-49AE-B555-EE9DA4ADA4AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10768,7 +10460,7 @@
         <xdr:cNvPr id="26" name="직선 연결선 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428C1274-D26B-4913-B05E-CD7700989131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{428C1274-D26B-4913-B05E-CD7700989131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10826,7 +10518,7 @@
         <xdr:cNvPr id="27" name="직선 연결선 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26988F09-CEC4-4306-9357-32676F7E55B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26988F09-CEC4-4306-9357-32676F7E55B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10884,7 +10576,7 @@
         <xdr:cNvPr id="28" name="직선 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1335BCA9-93EF-4A74-B1DB-5148AF87614C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1335BCA9-93EF-4A74-B1DB-5148AF87614C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10942,7 +10634,7 @@
         <xdr:cNvPr id="29" name="직선 연결선 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3FDA2F-62B5-4BF3-8CD4-3EA8F91ADBA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B3FDA2F-62B5-4BF3-8CD4-3EA8F91ADBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11000,7 +10692,7 @@
         <xdr:cNvPr id="30" name="직선 연결선 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB49B69-32DB-4EA9-8DDF-D09E76D47156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EB49B69-32DB-4EA9-8DDF-D09E76D47156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11058,7 +10750,7 @@
         <xdr:cNvPr id="31" name="직선 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81060D38-556A-4F0D-8ADF-09F8D6C7A5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81060D38-556A-4F0D-8ADF-09F8D6C7A5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11116,7 +10808,7 @@
         <xdr:cNvPr id="32" name="직선 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36ACFFDE-06A0-4D64-8471-0571A2B10B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36ACFFDE-06A0-4D64-8471-0571A2B10B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11174,7 +10866,7 @@
         <xdr:cNvPr id="33" name="직선 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4017BFAE-90F4-4318-81F3-B648A51FBB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4017BFAE-90F4-4318-81F3-B648A51FBB1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11232,7 +10924,7 @@
         <xdr:cNvPr id="34" name="직선 연결선 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0030F34A-7ED9-4EA8-BD52-35C4D8B56DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0030F34A-7ED9-4EA8-BD52-35C4D8B56DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11290,7 +10982,7 @@
         <xdr:cNvPr id="35" name="직선 연결선 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4331343C-21D3-4D3D-9EC6-29B8E1FE8F98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4331343C-21D3-4D3D-9EC6-29B8E1FE8F98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11348,7 +11040,7 @@
         <xdr:cNvPr id="37" name="직선 연결선 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AE8CB0-4B39-4D6E-BE26-34BCD8929B0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45AE8CB0-4B39-4D6E-BE26-34BCD8929B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11406,7 +11098,7 @@
         <xdr:cNvPr id="38" name="직선 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC3612C-D81D-4D3F-81CB-2676ACAABD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EC3612C-D81D-4D3F-81CB-2676ACAABD60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11464,7 +11156,7 @@
         <xdr:cNvPr id="39" name="직선 연결선 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F1F2B2-0B10-45C4-BAB5-9461A925619F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28F1F2B2-0B10-45C4-BAB5-9461A925619F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11522,7 +11214,7 @@
         <xdr:cNvPr id="40" name="직선 연결선 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D268770-D671-477D-A100-4B6981FFD30D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D268770-D671-477D-A100-4B6981FFD30D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11580,7 +11272,7 @@
         <xdr:cNvPr id="41" name="직선 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD498EE-CFDD-4686-B258-C9EBB5D0571A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FD498EE-CFDD-4686-B258-C9EBB5D0571A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11638,7 +11330,7 @@
         <xdr:cNvPr id="42" name="직선 연결선 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2AE296-4AF9-444B-876B-EDD6F5183DE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C2AE296-4AF9-444B-876B-EDD6F5183DE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11696,7 +11388,7 @@
         <xdr:cNvPr id="43" name="직선 연결선 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D98E090-627D-4268-B93E-19262338A5FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D98E090-627D-4268-B93E-19262338A5FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11754,7 +11446,7 @@
         <xdr:cNvPr id="44" name="직선 연결선 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEFCA1F-8C26-45AD-9AFF-AFFDA4417664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DEFCA1F-8C26-45AD-9AFF-AFFDA4417664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11812,7 +11504,7 @@
         <xdr:cNvPr id="45" name="직선 연결선 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD46A14-512B-45FD-8226-1001B1BE3640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD46A14-512B-45FD-8226-1001B1BE3640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11875,7 +11567,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ABDE24-9474-4739-9933-80E8CF8F9A67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94ABDE24-9474-4739-9933-80E8CF8F9A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11884,10 +11576,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11911,7 +11603,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="달력"/>
@@ -12367,7 +12059,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="일정표"/>
@@ -12627,7 +12319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -12679,7 +12371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -12873,20 +12565,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB11527D-E22F-4EAE-8325-38AD9B71ADD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13069,13 +12761,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8600393-B4F7-468A-AB7B-4E68A50C9D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:AB24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -13768,14 +13460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05ED540-13EB-4A55-9EA3-25F2BB853BE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -14436,10 +14128,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6583B55-22C9-4051-8EC4-641F25FDDA4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -14690,21 +14382,21 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" location="5esWq" xr:uid="{634BD697-8BC1-4734-8180-301666A7A9D6}"/>
+    <hyperlink ref="B15" r:id="rId1" location="5esWq"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368274E1-F0B3-4BFB-A15B-36E878DDCC8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -15579,6 +15271,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:C9"/>
@@ -15586,13 +15285,6 @@
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15600,7 +15292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD84D1E-03C2-44A1-B2BC-24BFC8FE13D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16503,6 +16195,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="D5:D9"/>
@@ -16510,13 +16209,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16525,7 +16217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241C4721-D281-44AA-A97E-769CE3E49FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
@@ -16570,9 +16262,9 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="33" t="str">
-        <f>F2&amp;" ("&amp;TEXT(G6,"m월 d일")&amp;"~"&amp;TEXT(J14,"5월 4일)")</f>
-        <v>1조 웹프로젝트 (4월 20일~5월 4일)</v>
+      <c r="G2" s="33" t="e">
+        <f ca="1">F2&amp;" ("&amp;TEXT(G6,"m월 d일")&amp;"~"&amp;TEXT(J14,"5월 4일)")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -16587,9 +16279,9 @@
       <c r="O3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="32">
-        <f>SUMPRODUCT(P6:P14,N6:N14)/SUM(N6:N14)</f>
-        <v>0.98333333333333339</v>
+      <c r="P3" s="32" t="e">
+        <f ca="1">SUMPRODUCT(P6:P14,N6:N14)/SUM(N6:N14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AA3" s="34" t="s">
         <v>14</v>
@@ -16617,9 +16309,9 @@
         <f>MIN(G6:G25,L6:L25)-2</f>
         <v>44304</v>
       </c>
-      <c r="AB4" s="35">
-        <f>MAX(O6:O25,J6:J25)+10</f>
-        <v>44332</v>
+      <c r="AB4" s="35" t="e">
+        <f ca="1">MAX(O6:O25,J6:J25)+10</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" ht="18" thickBot="1">
@@ -16718,13 +16410,13 @@
       <c r="H6" s="40">
         <v>2</v>
       </c>
-      <c r="I6" s="28">
-        <f>J6-G6</f>
-        <v>2</v>
-      </c>
-      <c r="J6" s="29">
-        <f>WORKDAY.INTL(G6,H6,1)</f>
-        <v>44308</v>
+      <c r="I6" s="28" t="e">
+        <f ca="1">J6-G6</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="29" t="e">
+        <f ca="1">WORKDAY.INTL(G6,H6,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="17">
@@ -16733,20 +16425,20 @@
       <c r="M6" s="18">
         <v>3</v>
       </c>
-      <c r="N6" s="28">
-        <f>O6-L6</f>
-        <v>3</v>
-      </c>
-      <c r="O6" s="29">
-        <f>WORKDAY.INTL(L6,M6,1)</f>
-        <v>44309</v>
+      <c r="N6" s="28" t="e">
+        <f ca="1">O6-L6</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" s="29" t="e">
+        <f ca="1">WORKDAY.INTL(L6,M6,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P6" s="19">
         <v>1</v>
       </c>
-      <c r="Q6" s="20">
-        <f>N6*P6</f>
-        <v>3</v>
+      <c r="Q6" s="20" t="e">
+        <f ca="1">N6*P6</f>
+        <v>#NAME?</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:S24" si="0">IF(A6="",NA(),19.1-ROW()+6)</f>
@@ -16804,13 +16496,13 @@
       <c r="H7" s="42">
         <v>2</v>
       </c>
-      <c r="I7" s="30">
-        <f t="shared" ref="I7:I21" si="7">J7-G7</f>
-        <v>2</v>
-      </c>
-      <c r="J7" s="31">
-        <f t="shared" ref="J7:J16" si="8">WORKDAY.INTL(G7,H7,1)</f>
-        <v>44308</v>
+      <c r="I7" s="30" t="e">
+        <f t="shared" ref="I7:I21" ca="1" si="7">J7-G7</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="31" t="e">
+        <f t="shared" ref="J7:J16" ca="1" si="8">WORKDAY.INTL(G7,H7,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="24">
@@ -16819,20 +16511,20 @@
       <c r="M7" s="25">
         <v>2</v>
       </c>
-      <c r="N7" s="30">
-        <f t="shared" ref="N7:N14" si="9">O7-L7</f>
-        <v>2</v>
-      </c>
-      <c r="O7" s="31">
-        <f t="shared" ref="O7:O14" si="10">WORKDAY.INTL(L7,M7,1)</f>
-        <v>44308</v>
+      <c r="N7" s="30" t="e">
+        <f t="shared" ref="N7:N14" ca="1" si="9">O7-L7</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" s="31" t="e">
+        <f t="shared" ref="O7:O14" ca="1" si="10">WORKDAY.INTL(L7,M7,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P7" s="26">
         <v>1</v>
       </c>
-      <c r="Q7" s="27">
-        <f t="shared" ref="Q7:Q25" si="11">N7*P7</f>
-        <v>2</v>
+      <c r="Q7" s="27" t="e">
+        <f t="shared" ref="Q7:Q25" ca="1" si="11">N7*P7</f>
+        <v>#NAME?</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="0"/>
@@ -16891,33 +16583,33 @@
       <c r="H8" s="40">
         <v>2</v>
       </c>
-      <c r="I8" s="28">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="29">
-        <f t="shared" si="8"/>
-        <v>44308</v>
+      <c r="I8" s="28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="29" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="17">
         <v>44306</v>
       </c>
       <c r="M8" s="18"/>
-      <c r="N8" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="29">
-        <f t="shared" si="10"/>
-        <v>44306</v>
+      <c r="N8" s="28" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O8" s="29" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="P8" s="19">
         <v>0</v>
       </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q8" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="0"/>
@@ -16974,33 +16666,33 @@
       <c r="H9" s="42">
         <v>2</v>
       </c>
-      <c r="I9" s="30">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="31">
-        <f t="shared" si="8"/>
-        <v>44308</v>
+      <c r="I9" s="30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="24">
         <v>44306</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="31">
-        <f t="shared" si="10"/>
-        <v>44306</v>
+      <c r="N9" s="30" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O9" s="31" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="P9" s="26">
         <v>0</v>
       </c>
-      <c r="Q9" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q9" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="0"/>
@@ -17059,33 +16751,33 @@
       <c r="H10" s="40">
         <v>2</v>
       </c>
-      <c r="I10" s="28">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="29">
-        <f t="shared" si="8"/>
-        <v>44308</v>
+      <c r="I10" s="28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="29" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="17">
         <v>44306</v>
       </c>
       <c r="M10" s="18"/>
-      <c r="N10" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="29">
-        <f t="shared" si="10"/>
-        <v>44306</v>
+      <c r="N10" s="28" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O10" s="29" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="P10" s="19">
         <v>0</v>
       </c>
-      <c r="Q10" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q10" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="0"/>
@@ -17138,33 +16830,33 @@
         <v>44306</v>
       </c>
       <c r="H11" s="42"/>
-      <c r="I11" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="31">
-        <f t="shared" si="8"/>
-        <v>44306</v>
+      <c r="I11" s="30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="24">
         <v>44306</v>
       </c>
       <c r="M11" s="25"/>
-      <c r="N11" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="31">
-        <f t="shared" si="10"/>
-        <v>44306</v>
+      <c r="N11" s="30" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O11" s="31" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="P11" s="26">
         <v>0</v>
       </c>
-      <c r="Q11" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q11" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="0"/>
@@ -17216,33 +16908,33 @@
         <v>44306</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="29">
-        <f t="shared" si="8"/>
-        <v>44306</v>
+      <c r="I12" s="28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="29" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="17">
         <v>44306</v>
       </c>
       <c r="M12" s="18"/>
-      <c r="N12" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="29">
-        <f t="shared" si="10"/>
-        <v>44306</v>
+      <c r="N12" s="28" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O12" s="29" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="P12" s="19">
         <v>0</v>
       </c>
-      <c r="Q12" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q12" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="0"/>
@@ -17301,13 +16993,13 @@
       <c r="H13" s="42">
         <v>1</v>
       </c>
-      <c r="I13" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="31">
-        <f t="shared" si="8"/>
-        <v>44307</v>
+      <c r="I13" s="30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J13" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="24">
@@ -17319,9 +17011,9 @@
       <c r="N13" s="30">
         <v>1</v>
       </c>
-      <c r="O13" s="31">
-        <f t="shared" si="10"/>
-        <v>44307</v>
+      <c r="O13" s="31" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="P13" s="26">
         <v>0.9</v>
@@ -17385,33 +17077,33 @@
       <c r="H14" s="40">
         <v>2</v>
       </c>
-      <c r="I14" s="28">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="29">
-        <f t="shared" si="8"/>
-        <v>44308</v>
+      <c r="I14" s="28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="29" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="17">
         <v>44314</v>
       </c>
       <c r="M14" s="18"/>
-      <c r="N14" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="29">
-        <f t="shared" si="10"/>
-        <v>44314</v>
+      <c r="N14" s="28" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O14" s="29" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="P14" s="19">
         <v>0</v>
       </c>
-      <c r="Q14" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q14" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="0"/>
@@ -17467,33 +17159,33 @@
       <c r="H15" s="42">
         <v>1</v>
       </c>
-      <c r="I15" s="30">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="J15" s="31">
-        <f t="shared" si="8"/>
-        <v>44312</v>
+      <c r="I15" s="30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="24">
         <v>44315</v>
       </c>
       <c r="M15" s="25"/>
-      <c r="N15" s="30">
-        <f t="shared" ref="N15:N25" si="14">O15-L15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="31">
-        <f t="shared" ref="O15:O25" si="15">WORKDAY.INTL(L15,M15,1)</f>
-        <v>44315</v>
+      <c r="N15" s="30" t="e">
+        <f t="shared" ref="N15:N25" ca="1" si="14">O15-L15</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O15" s="31" t="e">
+        <f t="shared" ref="O15:O25" ca="1" si="15">WORKDAY.INTL(L15,M15,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P15" s="26">
         <v>0</v>
       </c>
-      <c r="Q15" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q15" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="0"/>
@@ -17548,33 +17240,33 @@
         <v>44309</v>
       </c>
       <c r="H16" s="40"/>
-      <c r="I16" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
-        <f t="shared" si="8"/>
-        <v>44309</v>
+      <c r="I16" s="28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" s="29" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="17">
         <v>44316</v>
       </c>
       <c r="M16" s="18"/>
-      <c r="N16" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="29">
-        <f t="shared" si="15"/>
-        <v>44316</v>
+      <c r="N16" s="28" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O16" s="29" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P16" s="19">
         <v>0</v>
       </c>
-      <c r="Q16" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q16" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="0"/>
@@ -17624,33 +17316,33 @@
         <v>44309</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="I17" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="31">
-        <f t="shared" ref="J17:J25" si="17">WORKDAY.INTL(G17,H17,1)</f>
-        <v>44309</v>
+      <c r="I17" s="30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="31" t="e">
+        <f t="shared" ref="J17:J25" ca="1" si="17">WORKDAY.INTL(G17,H17,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="24">
         <v>44317</v>
       </c>
       <c r="M17" s="25"/>
-      <c r="N17" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="31">
-        <f t="shared" si="15"/>
-        <v>44317</v>
+      <c r="N17" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O17" s="31" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P17" s="26">
         <v>0</v>
       </c>
-      <c r="Q17" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q17" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="0"/>
@@ -17700,33 +17392,33 @@
         <v>44309</v>
       </c>
       <c r="H18" s="40"/>
-      <c r="I18" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
-        <f t="shared" si="17"/>
-        <v>44309</v>
+      <c r="I18" s="28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J18" s="29" t="e">
+        <f t="shared" ca="1" si="17"/>
+        <v>#NAME?</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="17">
         <v>44318</v>
       </c>
       <c r="M18" s="18"/>
-      <c r="N18" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="29">
-        <f t="shared" si="15"/>
-        <v>44318</v>
+      <c r="N18" s="28" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O18" s="29" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P18" s="19">
         <v>0</v>
       </c>
-      <c r="Q18" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q18" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="0"/>
@@ -17776,33 +17468,33 @@
         <v>44318</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="I19" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="31">
-        <f t="shared" si="17"/>
-        <v>44318</v>
+      <c r="I19" s="30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J19" s="31" t="e">
+        <f t="shared" ca="1" si="17"/>
+        <v>#NAME?</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="24">
         <v>44319</v>
       </c>
       <c r="M19" s="25"/>
-      <c r="N19" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="31">
-        <f t="shared" si="15"/>
-        <v>44319</v>
+      <c r="N19" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O19" s="31" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P19" s="26">
         <v>0</v>
       </c>
-      <c r="Q19" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q19" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="0"/>
@@ -17849,33 +17541,33 @@
         <v>44319</v>
       </c>
       <c r="H20" s="40"/>
-      <c r="I20" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="29">
-        <f t="shared" si="17"/>
-        <v>44319</v>
+      <c r="I20" s="28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="29" t="e">
+        <f t="shared" ca="1" si="17"/>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="17">
         <v>44320</v>
       </c>
       <c r="M20" s="18"/>
-      <c r="N20" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="29">
-        <f t="shared" si="15"/>
-        <v>44320</v>
+      <c r="N20" s="28" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O20" s="29" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P20" s="19">
         <v>0</v>
       </c>
-      <c r="Q20" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q20" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S20" s="5">
         <f t="shared" si="0"/>
@@ -17932,18 +17624,18 @@
       <c r="K21" s="38"/>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="31">
-        <f t="shared" si="15"/>
-        <v>0</v>
+      <c r="N21" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O21" s="31" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q21" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="0"/>
@@ -17992,29 +17684,29 @@
       <c r="H22" s="40">
         <v>7</v>
       </c>
-      <c r="I22" s="28">
-        <f>J22-G22</f>
-        <v>11</v>
-      </c>
-      <c r="J22" s="29">
-        <f t="shared" si="17"/>
-        <v>44320</v>
+      <c r="I22" s="28" t="e">
+        <f ca="1">J22-G22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="29" t="e">
+        <f t="shared" ca="1" si="17"/>
+        <v>#NAME?</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="17"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
+      <c r="N22" s="28" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O22" s="29" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P22" s="19"/>
-      <c r="Q22" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q22" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="0"/>
@@ -18063,29 +17755,29 @@
       <c r="H23" s="42">
         <v>3</v>
       </c>
-      <c r="I23" s="30">
-        <f>J23-G23</f>
-        <v>3</v>
-      </c>
-      <c r="J23" s="31">
-        <f t="shared" si="17"/>
-        <v>44322</v>
+      <c r="I23" s="30" t="e">
+        <f ca="1">J23-G23</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J23" s="31" t="e">
+        <f t="shared" ca="1" si="17"/>
+        <v>#NAME?</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="24"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="31">
-        <f t="shared" si="15"/>
-        <v>0</v>
+      <c r="N23" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O23" s="31" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P23" s="26"/>
-      <c r="Q23" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q23" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="0"/>
@@ -18134,29 +17826,29 @@
       <c r="H24" s="40">
         <v>2</v>
       </c>
-      <c r="I24" s="28">
-        <f>J24-G24</f>
-        <v>2</v>
-      </c>
-      <c r="J24" s="29">
-        <f t="shared" si="17"/>
-        <v>44322</v>
+      <c r="I24" s="28" t="e">
+        <f ca="1">J24-G24</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J24" s="29" t="e">
+        <f t="shared" ca="1" si="17"/>
+        <v>#NAME?</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="17"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
+      <c r="N24" s="28" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O24" s="29" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P24" s="19"/>
-      <c r="Q24" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q24" s="20" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" si="0"/>
@@ -18199,29 +17891,29 @@
       <c r="F25" s="48"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="30">
-        <f>J25-G25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="31">
-        <f t="shared" si="17"/>
-        <v>0</v>
+      <c r="I25" s="30" t="e">
+        <f ca="1">J25-G25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J25" s="31" t="e">
+        <f t="shared" ca="1" si="17"/>
+        <v>#NAME?</v>
       </c>
       <c r="K25" s="38"/>
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="31">
-        <f t="shared" si="15"/>
-        <v>0</v>
+      <c r="N25" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O25" s="31" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="P25" s="26"/>
-      <c r="Q25" s="27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Q25" s="27" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
       </c>
       <c r="S25" s="5">
         <v>0.1</v>
@@ -18279,10 +17971,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F25" xr:uid="{D9BC0595-27E3-448A-BBEC-BBC0B910A6BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F25">
       <formula1>OFFSET($A$6,,,COUNTA($A$6:$A$25))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D25" xr:uid="{40CEC695-5176-4B73-819D-E172309E0AA9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D25">
       <formula1>$AA$8:$AA$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -18294,7 +17986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7A9AB-2F3E-495D-AB6F-02A7D6B1577B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>

--- a/Vegan_WebProject/Gantt_chart_Team1.xlsx
+++ b/Vegan_WebProject/Gantt_chart_Team1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2676" windowWidth="17280" windowHeight="4272" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2676" windowWidth="19308" windowHeight="4980" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="스케쥴">[2]일정표!$P$6:$P$17,[2]일정표!$N$6:$N$17,[2]일정표!$L$6:$L$17,[2]일정표!$J$6:$J$17,[2]일정표!$H$6:$H$17</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <oleSize ref="A10:L20"/>
+  <oleSize ref="A4:E16"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3899,10 +3899,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12678564079426513"/>
+          <c:x val="0.12678564079426516"/>
           <c:y val="8.5166449074341247E-2"/>
-          <c:w val="0.84625083644156818"/>
-          <c:h val="0.91483355092565866"/>
+          <c:w val="0.8462508364415684"/>
+          <c:h val="0.91483355092565855"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4370,11 +4370,10 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="80"/>
         <c:overlap val="100"/>
-        <c:axId val="107211392"/>
-        <c:axId val="137503104"/>
+        <c:axId val="90258432"/>
+        <c:axId val="90272512"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4397,6 +4396,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4425,6 +4425,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4447,6 +4448,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4469,6 +4471,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4491,6 +4494,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4513,6 +4517,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4535,6 +4540,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4557,6 +4563,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4579,6 +4586,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4601,6 +4609,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4623,6 +4632,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4645,6 +4655,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4667,6 +4678,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4689,6 +4701,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4711,6 +4724,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4733,6 +4747,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4755,6 +4770,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4777,6 +4793,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4799,6 +4816,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5229,6 +5247,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6749,12 +6768,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="137506176"/>
-        <c:axId val="137504640"/>
+        <c:axId val="90312704"/>
+        <c:axId val="90274048"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="107211392"/>
+        <c:axId val="90258432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6795,14 +6813,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137503104"/>
+        <c:crossAx val="90272512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137503104"/>
+        <c:axId val="90272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="44305"/>
@@ -6852,13 +6870,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107211392"/>
+        <c:crossAx val="90258432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137504640"/>
+        <c:axId val="90274048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -6867,12 +6885,12 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="137506176"/>
+        <c:crossAx val="90312704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137506176"/>
+        <c:axId val="90312704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6880,7 +6898,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;월&quot;\ d&quot;일&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="137504640"/>
+        <c:crossAx val="90274048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6924,7 +6942,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6950,7 +6968,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{427CB6D3-7DE5-4EFF-8675-E3A2ED0859E6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427CB6D3-7DE5-4EFF-8675-E3A2ED0859E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6962,7 +6980,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7006,7 +7024,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEFD42F1-2AEF-42C2-A9EB-33346C0112B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFD42F1-2AEF-42C2-A9EB-33346C0112B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7018,7 +7036,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7062,7 +7080,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99EF186-EAC3-4F27-9E2B-4447249D86FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99EF186-EAC3-4F27-9E2B-4447249D86FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7074,7 +7092,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7118,7 +7136,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F6F2496-749E-452A-B8BD-E53C4F878D39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F2496-749E-452A-B8BD-E53C4F878D39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7130,7 +7148,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7174,7 +7192,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{677D13A9-7E43-4816-BE1D-CB27FA838BBF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677D13A9-7E43-4816-BE1D-CB27FA838BBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7186,7 +7204,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7230,7 +7248,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45D67BC8-CD18-4EE7-A269-B02B81EB867F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D67BC8-CD18-4EE7-A269-B02B81EB867F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7242,7 +7260,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7286,7 +7304,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A433ED-4EF8-4B0C-8686-581EFB185AC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A433ED-4EF8-4B0C-8686-581EFB185AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7298,7 +7316,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7342,7 +7360,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3DE3CBD-2424-4AB6-BD4F-DD11BE163639}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DE3CBD-2424-4AB6-BD4F-DD11BE163639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7354,7 +7372,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7398,7 +7416,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D293D003-67E5-4F0D-94BC-9A6077944892}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D293D003-67E5-4F0D-94BC-9A6077944892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7410,7 +7428,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7454,7 +7472,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E059B5A4-67F2-46E2-AC92-14FB281E2977}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E059B5A4-67F2-46E2-AC92-14FB281E2977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7466,7 +7484,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7510,7 +7528,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1196A87-2DBB-4028-9693-CE67F61AC8D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1196A87-2DBB-4028-9693-CE67F61AC8D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7522,7 +7540,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7566,7 +7584,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A530A24A-0D9B-42BA-8119-2D4EC652BEF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A530A24A-0D9B-42BA-8119-2D4EC652BEF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7578,7 +7596,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7622,7 +7640,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC6BC3D5-558A-485F-ABCA-EDC92D0DD390}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6BC3D5-558A-485F-ABCA-EDC92D0DD390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7634,7 +7652,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7678,7 +7696,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FA7064A-C1D2-4C25-AEDA-C5687FF6E100}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA7064A-C1D2-4C25-AEDA-C5687FF6E100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7690,7 +7708,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7734,7 +7752,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BD89023-27C7-4B70-9173-E50D9CD22386}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD89023-27C7-4B70-9173-E50D9CD22386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7746,7 +7764,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7790,7 +7808,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E364D87C-74F3-4392-89D0-1433A3A89781}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E364D87C-74F3-4392-89D0-1433A3A89781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7802,7 +7820,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7846,7 +7864,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EEE1461-7676-4A98-A531-9D555E0E4102}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEE1461-7676-4A98-A531-9D555E0E4102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7858,7 +7876,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7902,7 +7920,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06FE4DE-1B31-4F29-8A8B-6AE199BBA5A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06FE4DE-1B31-4F29-8A8B-6AE199BBA5A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7914,7 +7932,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7958,7 +7976,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAEA58EB-675C-4B11-ABE1-76263B67FFF3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEA58EB-675C-4B11-ABE1-76263B67FFF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7970,7 +7988,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8014,7 +8032,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{520432BA-1292-43CC-B5E1-3BB34A64EA08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520432BA-1292-43CC-B5E1-3BB34A64EA08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8026,7 +8044,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8070,7 +8088,7 @@
         <xdr:cNvPr id="22" name="그림 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DF3F12D-AEBA-45D2-870E-9E9F0AFF39C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF3F12D-AEBA-45D2-870E-9E9F0AFF39C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8082,7 +8100,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8126,7 +8144,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4CF62FC-BC25-4155-A0D2-725434B69D72}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CF62FC-BC25-4155-A0D2-725434B69D72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8138,7 +8156,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8182,7 +8200,7 @@
         <xdr:cNvPr id="24" name="그림 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C30ED4C2-F519-4869-87B2-7FA504AF7826}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30ED4C2-F519-4869-87B2-7FA504AF7826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8194,7 +8212,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8238,7 +8256,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1108BA06-E289-443D-8520-8B99F3A6E874}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1108BA06-E289-443D-8520-8B99F3A6E874}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8250,7 +8268,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8294,7 +8312,7 @@
         <xdr:cNvPr id="26" name="그림 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0060C7F-7EA8-4088-9074-6AB4ED01C33C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0060C7F-7EA8-4088-9074-6AB4ED01C33C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8306,7 +8324,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8350,7 +8368,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{618D0E95-DFD2-4EE7-BA9D-E865A2B2C75B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618D0E95-DFD2-4EE7-BA9D-E865A2B2C75B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8362,7 +8380,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8406,7 +8424,7 @@
         <xdr:cNvPr id="28" name="그림 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4937973-55DC-48EF-ACA9-FEAFBFEC1043}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4937973-55DC-48EF-ACA9-FEAFBFEC1043}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8418,7 +8436,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8462,7 +8480,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C878E76-2704-41E4-9DA2-E33C60328399}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C878E76-2704-41E4-9DA2-E33C60328399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8474,7 +8492,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8518,7 +8536,7 @@
         <xdr:cNvPr id="30" name="그림 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5ACE7D3-7F58-4541-BA9B-68C86B2BA05F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ACE7D3-7F58-4541-BA9B-68C86B2BA05F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8530,7 +8548,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8574,7 +8592,7 @@
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FE56274-EF8F-457C-8A21-124A24E9D313}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE56274-EF8F-457C-8A21-124A24E9D313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8586,7 +8604,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8630,7 +8648,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC1E9ACD-BFCF-459B-88CC-65415C3BBE20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1E9ACD-BFCF-459B-88CC-65415C3BBE20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8642,7 +8660,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8686,7 +8704,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4884924-58C5-4BAF-8C9C-AC76D5B58FDE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4884924-58C5-4BAF-8C9C-AC76D5B58FDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8698,7 +8716,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8742,7 +8760,7 @@
         <xdr:cNvPr id="34" name="그림 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA04292-FDE2-4FE9-B807-A4E1BA6B6A97}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA04292-FDE2-4FE9-B807-A4E1BA6B6A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8754,7 +8772,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8798,7 +8816,7 @@
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A19F7F1-58BF-4406-9BF6-EB0E47B6813B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A19F7F1-58BF-4406-9BF6-EB0E47B6813B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8810,7 +8828,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8854,7 +8872,7 @@
         <xdr:cNvPr id="36" name="그림 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4CBBBD4-C7B0-4DD2-A4F5-532ABBA63057}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CBBBD4-C7B0-4DD2-A4F5-532ABBA63057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8866,7 +8884,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8910,7 +8928,7 @@
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AACB7CE3-A56D-4A5C-936C-F2FED0199304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACB7CE3-A56D-4A5C-936C-F2FED0199304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8922,7 +8940,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8966,7 +8984,7 @@
         <xdr:cNvPr id="38" name="그림 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E2680D-5BA3-4A29-954C-E7EA9F1B8DBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E2680D-5BA3-4A29-954C-E7EA9F1B8DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8978,7 +8996,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9022,7 +9040,7 @@
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D02B9FAC-A13F-4C00-B7E8-0EA1D7D5BE6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02B9FAC-A13F-4C00-B7E8-0EA1D7D5BE6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9034,7 +9052,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9078,7 +9096,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{067C9E77-E279-45DB-B74A-DE4BBAAF7E4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067C9E77-E279-45DB-B74A-DE4BBAAF7E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9090,7 +9108,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9139,7 +9157,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B80D721-DEB2-4EB6-A0A4-5063801384F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B80D721-DEB2-4EB6-A0A4-5063801384F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9158,7 +9176,7 @@
           <xdr:cNvPr id="3" name="그룹 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9010A2F1-DA30-460D-A02C-675CFB2DCFCE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9010A2F1-DA30-460D-A02C-675CFB2DCFCE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9177,7 +9195,7 @@
             <xdr:cNvPr id="16" name="차트 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A07897EE-A317-4C62-BE64-2B584E96250B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07897EE-A317-4C62-BE64-2B584E96250B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9200,7 +9218,7 @@
             <xdr:cNvPr id="17" name="직선 연결선 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{291D0946-6488-4BFA-83DA-7D0719A0737E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291D0946-6488-4BFA-83DA-7D0719A0737E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9242,7 +9260,7 @@
             <xdr:cNvPr id="18" name="직선 연결선 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F715953-F645-4446-85AA-86303C63EDAA}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F715953-F645-4446-85AA-86303C63EDAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9285,7 +9303,7 @@
           <xdr:cNvPr id="4" name="그룹 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85785B5C-ED22-41A7-8F42-93D037F5ECEC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85785B5C-ED22-41A7-8F42-93D037F5ECEC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9304,7 +9322,7 @@
             <xdr:cNvPr id="14" name="직사각형 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EAD0027-823E-4742-9E29-E9CACF65079D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAD0027-823E-4742-9E29-E9CACF65079D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9358,7 +9376,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2059425C-B7E2-4328-8ECC-A40D97451F64}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2059425C-B7E2-4328-8ECC-A40D97451F64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9408,7 +9426,7 @@
           <xdr:cNvPr id="5" name="그룹 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41DAC7F1-6BD6-4842-B9A6-B7CAE482B0B6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DAC7F1-6BD6-4842-B9A6-B7CAE482B0B6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9427,7 +9445,7 @@
             <xdr:cNvPr id="12" name="직사각형 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA22F6D4-F427-4630-B4FC-52D1003A6950}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA22F6D4-F427-4630-B4FC-52D1003A6950}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9480,7 +9498,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922520B-7EB7-4C21-B342-BA65741B2225}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922520B-7EB7-4C21-B342-BA65741B2225}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9530,7 +9548,7 @@
           <xdr:cNvPr id="6" name="그룹 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87CFE84A-6372-4477-A969-BF2D14CDF635}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFE84A-6372-4477-A969-BF2D14CDF635}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9549,7 +9567,7 @@
             <xdr:cNvPr id="10" name="직사각형 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4421818-3B97-4237-87A5-6BF8D37E6E1B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4421818-3B97-4237-87A5-6BF8D37E6E1B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9600,7 +9618,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83506157-076A-4FE5-843D-92D435A19954}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83506157-076A-4FE5-843D-92D435A19954}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9650,7 +9668,7 @@
           <xdr:cNvPr id="7" name="그룹 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A163F3DE-6F62-4FD3-A4E3-025967E70EEE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A163F3DE-6F62-4FD3-A4E3-025967E70EEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9669,7 +9687,7 @@
             <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7F23F58-FF1F-45F4-AFCE-85616595C516}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F23F58-FF1F-45F4-AFCE-85616595C516}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9710,7 +9728,7 @@
             <xdr:cNvPr id="9" name="TextBox 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC16D712-F856-4131-B4B7-384C14FBBD24}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC16D712-F856-4131-B4B7-384C14FBBD24}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9776,7 +9794,7 @@
         <xdr:cNvPr id="19" name="사각형: 둥근 모서리 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61000F22-44EF-4536-A3D6-D3481FD58700}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61000F22-44EF-4536-A3D6-D3481FD58700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9857,7 +9875,7 @@
         <xdr:cNvPr id="25" name="직선 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B0A8686-0A1F-49AE-B555-EE9DA4ADA4AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0A8686-0A1F-49AE-B555-EE9DA4ADA4AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9915,7 +9933,7 @@
         <xdr:cNvPr id="26" name="직선 연결선 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{428C1274-D26B-4913-B05E-CD7700989131}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428C1274-D26B-4913-B05E-CD7700989131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9973,7 +9991,7 @@
         <xdr:cNvPr id="27" name="직선 연결선 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26988F09-CEC4-4306-9357-32676F7E55B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26988F09-CEC4-4306-9357-32676F7E55B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10031,7 +10049,7 @@
         <xdr:cNvPr id="28" name="직선 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1335BCA9-93EF-4A74-B1DB-5148AF87614C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1335BCA9-93EF-4A74-B1DB-5148AF87614C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10089,7 +10107,7 @@
         <xdr:cNvPr id="29" name="직선 연결선 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B3FDA2F-62B5-4BF3-8CD4-3EA8F91ADBA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3FDA2F-62B5-4BF3-8CD4-3EA8F91ADBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10147,7 +10165,7 @@
         <xdr:cNvPr id="30" name="직선 연결선 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EB49B69-32DB-4EA9-8DDF-D09E76D47156}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB49B69-32DB-4EA9-8DDF-D09E76D47156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10205,7 +10223,7 @@
         <xdr:cNvPr id="31" name="직선 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81060D38-556A-4F0D-8ADF-09F8D6C7A5D7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81060D38-556A-4F0D-8ADF-09F8D6C7A5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10263,7 +10281,7 @@
         <xdr:cNvPr id="32" name="직선 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36ACFFDE-06A0-4D64-8471-0571A2B10B51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36ACFFDE-06A0-4D64-8471-0571A2B10B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10321,7 +10339,7 @@
         <xdr:cNvPr id="33" name="직선 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4017BFAE-90F4-4318-81F3-B648A51FBB1E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4017BFAE-90F4-4318-81F3-B648A51FBB1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10379,7 +10397,7 @@
         <xdr:cNvPr id="34" name="직선 연결선 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0030F34A-7ED9-4EA8-BD52-35C4D8B56DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0030F34A-7ED9-4EA8-BD52-35C4D8B56DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10437,7 +10455,7 @@
         <xdr:cNvPr id="35" name="직선 연결선 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4331343C-21D3-4D3D-9EC6-29B8E1FE8F98}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4331343C-21D3-4D3D-9EC6-29B8E1FE8F98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10495,7 +10513,7 @@
         <xdr:cNvPr id="37" name="직선 연결선 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45AE8CB0-4B39-4D6E-BE26-34BCD8929B0C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AE8CB0-4B39-4D6E-BE26-34BCD8929B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10553,7 +10571,7 @@
         <xdr:cNvPr id="38" name="직선 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EC3612C-D81D-4D3F-81CB-2676ACAABD60}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC3612C-D81D-4D3F-81CB-2676ACAABD60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10611,7 +10629,7 @@
         <xdr:cNvPr id="39" name="직선 연결선 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28F1F2B2-0B10-45C4-BAB5-9461A925619F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F1F2B2-0B10-45C4-BAB5-9461A925619F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10669,7 +10687,7 @@
         <xdr:cNvPr id="40" name="직선 연결선 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D268770-D671-477D-A100-4B6981FFD30D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D268770-D671-477D-A100-4B6981FFD30D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10727,7 +10745,7 @@
         <xdr:cNvPr id="41" name="직선 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FD498EE-CFDD-4686-B258-C9EBB5D0571A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD498EE-CFDD-4686-B258-C9EBB5D0571A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10785,7 +10803,7 @@
         <xdr:cNvPr id="42" name="직선 연결선 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C2AE296-4AF9-444B-876B-EDD6F5183DE3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2AE296-4AF9-444B-876B-EDD6F5183DE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10843,7 +10861,7 @@
         <xdr:cNvPr id="43" name="직선 연결선 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D98E090-627D-4268-B93E-19262338A5FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D98E090-627D-4268-B93E-19262338A5FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10901,7 +10919,7 @@
         <xdr:cNvPr id="44" name="직선 연결선 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DEFCA1F-8C26-45AD-9AFF-AFFDA4417664}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEFCA1F-8C26-45AD-9AFF-AFFDA4417664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10959,7 +10977,7 @@
         <xdr:cNvPr id="45" name="직선 연결선 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD46A14-512B-45FD-8226-1001B1BE3640}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD46A14-512B-45FD-8226-1001B1BE3640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11022,7 +11040,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94ABDE24-9474-4739-9933-80E8CF8F9A67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ABDE24-9474-4739-9933-80E8CF8F9A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11034,7 +11052,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12020,7 +12038,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12033,7 +12051,7 @@
   </sheetPr>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -12222,7 +12240,7 @@
   </sheetPr>
   <dimension ref="B1:AB24"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -13586,7 +13604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -13851,7 +13869,7 @@
   </sheetPr>
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -14726,6 +14744,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C27:C28"/>
@@ -14733,13 +14758,6 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15650,6 +15668,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
     <mergeCell ref="C22:C28"/>
     <mergeCell ref="C29:C40"/>
     <mergeCell ref="D29:D32"/>
@@ -15657,13 +15682,6 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15679,7 +15697,7 @@
   </sheetPr>
   <dimension ref="A2:AB29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>

--- a/Vegan_WebProject/Gantt_chart_Team1.xlsx
+++ b/Vegan_WebProject/Gantt_chart_Team1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김형근\Desktop\Vegan_WebProject\Vegan_WebProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1012545-0CEE-40DF-A6E7-D49B0CFCE138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2676" windowWidth="17280" windowHeight="4272" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="13392" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="13" r:id="rId1"/>
@@ -35,10 +41,9 @@
     <definedName name="달력색상1">[1]달력!$B$5:$AJ$5,[1]달력!$AL$3</definedName>
     <definedName name="스케쥴">[2]일정표!$P$6:$P$17,[2]일정표!$N$6:$N$17,[2]일정표!$L$6:$L$17,[2]일정표!$J$6:$J$17,[2]일정표!$H$6:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A10:L20"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="322">
   <si>
     <t>총 진행률</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2062,9 +2067,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>좋아요 누른 매장 출력</t>
-  </si>
-  <si>
     <t>https://ovenapp.io/project/KLU3LGcTUgfR948XTv5gS9U8VWUpWPHS#5esWq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2191,12 +2193,257 @@
   <si>
     <t>Member View 구현</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitignore 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update 비밀번호 체크 기능 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 템플릿 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store controller 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>board controller update, delete, find</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store view 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store controller 구현 및 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>index 메인페이지 로직 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>board controller 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store view 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store 지역 필터 기능 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징 경로 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>css/js 분리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board view 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 검색기능 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store map 기능 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>best9 DB access하도록 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 css 정렬 수정</t>
+  </si>
+  <si>
+    <t>store 좋아요 기능 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store검색 기능 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board 조회수 코드 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mypage 코드 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mypage 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mypage 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 불필요한 것 삭제 및 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 코드 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>storelist 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈버튼 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store 페이징 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>front 전체 수정 및 정렬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지별 연결 주소 확인</t>
+  </si>
+  <si>
+    <t>페이징 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberform,board,comment 유효성 검증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart, storelist 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 front 최종점검</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 최종 점검 및 front 코드 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 준비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>usecase, class diagram 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>간트 차트 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 쓴 게시글 클릭시 해당 게시글 페이지로 이동</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심지역 클릭시 음식점 리스트 해당 카테고리 페이지로 이동</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 누른 음식점 클릭시 해당 음식점 페이지로 이동</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bo-008</t>
+  </si>
+  <si>
+    <t>Bo-009</t>
+  </si>
+  <si>
+    <t>게시글 작성(로그인 시 기능적용)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정(본인작성 시 기능적용)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제(본인작성 시 기능적용)</t>
+  </si>
+  <si>
+    <t>댓글 작성(로그인 시 기능적용)</t>
+  </si>
+  <si>
+    <t>댓글 삭제(본인작성 시 기능적용)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 음식점 주소 상세보기</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭시 이전/다음 페이지로 이동, 현재 페이지 번호 출력</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 음식점과 가장 가까운 비건음식점 출력 및 홈페이지 이동</t>
+  </si>
+  <si>
+    <t>St-011</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
@@ -3236,7 +3483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3739,6 +3986,10 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3852,12 +4103,29 @@
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -3889,8 +4157,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3908,6 +4186,7 @@
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3929,6 +4208,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="plus"/>
             <c:errValType val="cust"/>
@@ -3940,10 +4220,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -4009,10 +4289,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -4201,7 +4481,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72ED-4975-AC56-44172DBF2236}"/>
             </c:ext>
@@ -4230,6 +4510,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Milestone!$C$6:$C$25</c:f>
@@ -4302,10 +4583,10 @@
                 <c:formatCode>0;\-0;;</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4364,13 +4645,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-72ED-4975-AC56-44172DBF2236}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="100"/>
         <c:axId val="107211392"/>
@@ -4378,6 +4666,7 @@
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -4402,7 +4691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FC8D82F-9EA7-47FA-8F73-0614AB8F2AC9}" type="CELLRANGE">
+                    <a:fld id="{3744CA52-844D-4E1E-B8F5-0C9423CFB881}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4412,7 +4701,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -4435,7 +4730,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4457,7 +4758,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4479,7 +4786,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4501,7 +4814,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4523,7 +4842,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4545,7 +4870,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4567,7 +4898,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4589,7 +4926,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4611,7 +4954,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4633,7 +4982,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4655,7 +5010,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4677,7 +5038,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4699,7 +5066,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4721,7 +5094,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4743,7 +5122,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4765,7 +5150,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4787,7 +5178,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4809,7 +5206,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4831,7 +5234,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4841,7 +5250,6 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4869,7 +5277,14 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -4901,6 +5316,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
@@ -4914,19 +5331,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -4935,13 +5352,13 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0</c:v>
@@ -4962,13 +5379,13 @@
                     <c:v>-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>0</c:v>
@@ -4983,19 +5400,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -5004,13 +5421,13 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0</c:v>
@@ -5031,13 +5448,13 @@
                     <c:v>-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>0</c:v>
@@ -5193,7 +5610,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Milestone!$T$5</c15:f>
@@ -5244,7 +5662,13 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="t"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
@@ -5254,7 +5678,6 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5284,7 +5707,13 @@
                 <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5442,7 +5871,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Milestone!$T$5</c15:f>
@@ -5924,7 +6354,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-72ED-4975-AC56-44172DBF2236}"/>
             </c:ext>
@@ -5963,7 +6394,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
@@ -5980,7 +6417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BE97ED4-0F4F-414B-98A4-6B9D130A4292}" type="CELLRANGE">
+                    <a:fld id="{7EB09549-0628-4D4D-981E-A0552A234865}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5989,7 +6426,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6007,7 +6450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DA98228-AA85-433A-B6EA-11689EC1E46D}" type="CELLRANGE">
+                    <a:fld id="{D75D8642-AEEA-49A6-8182-80B6CD7E1ED3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6016,7 +6459,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6034,7 +6483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA31048E-1FDB-4B45-BEE5-4AB75FEB3D1E}" type="CELLRANGE">
+                    <a:fld id="{78E9A4A0-5707-4F94-AC00-0E69CA0F590C}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6043,7 +6492,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6061,7 +6516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45B6E480-D942-4BF6-96A7-41F6D8675B24}" type="CELLRANGE">
+                    <a:fld id="{C25C3ADA-53C7-4929-9001-A09ED9788AC3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6070,7 +6525,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6088,7 +6549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{200052DD-3AA9-4E3A-9DE7-977B5F1F4804}" type="CELLRANGE">
+                    <a:fld id="{4D1CF745-CB00-49B6-8ADA-4F7B4872EEEA}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6097,7 +6558,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6115,7 +6582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{266FCD87-674F-4F9F-AFE5-04CF70015995}" type="CELLRANGE">
+                    <a:fld id="{F5C2DE2B-EA55-4974-82D8-6B5DC64047D0}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6124,7 +6591,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6142,7 +6615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8189EDA-1CCF-42C4-87E4-889B1D2A2CD5}" type="CELLRANGE">
+                    <a:fld id="{7B4D9620-02F7-48BE-A0E3-1D8598D98D31}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6151,7 +6624,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6169,7 +6648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49FBFD7A-270E-407A-95A8-18BD16D374DC}" type="CELLRANGE">
+                    <a:fld id="{021C4073-2D9C-435B-BE68-34C6322B206B}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6178,7 +6657,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6196,7 +6681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CC28598-6859-4AA9-8951-580FCF9A2C1C}" type="CELLRANGE">
+                    <a:fld id="{3C2D280E-D457-4EC4-93D8-100ECA79BB0D}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6205,7 +6690,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6223,7 +6714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B25ED194-038C-4347-BCEB-4C0629EFABF3}" type="CELLRANGE">
+                    <a:fld id="{81439D22-9C53-4FC7-A012-1185AC0406EA}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6232,7 +6723,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6250,7 +6747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D847F8B1-439F-4EB0-BD82-0246A02C3712}" type="CELLRANGE">
+                    <a:fld id="{6F834D14-5971-47A9-9B06-B661AA876AEC}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6259,7 +6756,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6277,7 +6780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA727988-7DEC-45B0-898C-07D5FBF03D89}" type="CELLRANGE">
+                    <a:fld id="{5F68A0AB-B8E9-42E9-B608-8FCB4494C675}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6286,7 +6789,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6304,7 +6813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59708F89-3E50-4882-8F95-9EA489DD71A7}" type="CELLRANGE">
+                    <a:fld id="{8A6F982E-B133-49D7-A54D-C3838E08951D}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6313,7 +6822,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6331,7 +6846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7821F46B-731F-49ED-96B8-0B2D7D7C73EE}" type="CELLRANGE">
+                    <a:fld id="{AA42B555-27A7-4BB9-8FC5-5861E8F8E918}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6340,7 +6855,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6358,7 +6879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1706D964-C200-4CA2-B58F-25569047F088}" type="CELLRANGE">
+                    <a:fld id="{D53228FD-DADA-47EB-B971-340A109664D1}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6367,7 +6888,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6385,7 +6912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{776AF490-CC8C-443E-A9EB-8A5272759DD8}" type="CELLRANGE">
+                    <a:fld id="{756CCEA5-3599-4D63-8D75-F8FAA7DFCCE2}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6394,7 +6921,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6412,7 +6945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3D31478-53FF-4C9A-A131-E4A67256F9CF}" type="CELLRANGE">
+                    <a:fld id="{02963C13-9735-4239-BB58-979C812CDFC3}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6421,7 +6954,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6439,7 +6978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB2D19F0-F036-41AB-83BE-F4F11E6EB02E}" type="CELLRANGE">
+                    <a:fld id="{119D30A7-2FC7-4D97-BCC1-CA415A559E4F}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6448,7 +6987,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6466,7 +7011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AB60738-3BF3-4759-9CC9-EC959A43B4F3}" type="CELLRANGE">
+                    <a:fld id="{4834E7BD-D370-45EB-96A6-AA04BD6A34DA}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6475,7 +7020,13 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
@@ -6486,7 +7037,6 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6516,7 +7066,14 @@
                 <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
@@ -6544,49 +7101,49 @@
                 <c:formatCode>m"월"\ d"일";;;</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>44308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>44307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>44314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>44318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>44319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>44320</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -6675,7 +7232,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Milestone!$Y$6:$Y$25</c15:f>
@@ -6749,7 +7307,14 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="137506176"/>
         <c:axId val="137504640"/>
       </c:scatterChart>
@@ -6758,9 +7323,11 @@
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6800,6 +7367,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="137503104"/>
@@ -6807,6 +7375,7 @@
           <c:orientation val="minMax"/>
           <c:min val="44305"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6824,6 +7393,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="m&quot;월&quot;\ d&quot;일&quot;;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -6866,6 +7436,8 @@
         <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="137506176"/>
         <c:crosses val="max"/>
@@ -6879,6 +7451,8 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;월&quot;\ d&quot;일&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="137504640"/>
         <c:crosses val="autoZero"/>
@@ -6894,13 +7468,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6950,7 +7525,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{427CB6D3-7DE5-4EFF-8675-E3A2ED0859E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427CB6D3-7DE5-4EFF-8675-E3A2ED0859E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6962,7 +7537,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7006,7 +7581,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEFD42F1-2AEF-42C2-A9EB-33346C0112B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFD42F1-2AEF-42C2-A9EB-33346C0112B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7018,7 +7593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7062,7 +7637,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99EF186-EAC3-4F27-9E2B-4447249D86FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99EF186-EAC3-4F27-9E2B-4447249D86FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7074,7 +7649,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7118,7 +7693,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F6F2496-749E-452A-B8BD-E53C4F878D39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F2496-749E-452A-B8BD-E53C4F878D39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7130,7 +7705,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7174,7 +7749,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{677D13A9-7E43-4816-BE1D-CB27FA838BBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677D13A9-7E43-4816-BE1D-CB27FA838BBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7186,7 +7761,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7230,7 +7805,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45D67BC8-CD18-4EE7-A269-B02B81EB867F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D67BC8-CD18-4EE7-A269-B02B81EB867F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7242,7 +7817,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7286,7 +7861,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A433ED-4EF8-4B0C-8686-581EFB185AC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A433ED-4EF8-4B0C-8686-581EFB185AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7298,7 +7873,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7342,7 +7917,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3DE3CBD-2424-4AB6-BD4F-DD11BE163639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DE3CBD-2424-4AB6-BD4F-DD11BE163639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7354,7 +7929,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7398,7 +7973,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D293D003-67E5-4F0D-94BC-9A6077944892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D293D003-67E5-4F0D-94BC-9A6077944892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7410,7 +7985,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7454,7 +8029,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E059B5A4-67F2-46E2-AC92-14FB281E2977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E059B5A4-67F2-46E2-AC92-14FB281E2977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7466,7 +8041,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7510,7 +8085,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1196A87-2DBB-4028-9693-CE67F61AC8D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1196A87-2DBB-4028-9693-CE67F61AC8D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7522,7 +8097,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7566,7 +8141,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A530A24A-0D9B-42BA-8119-2D4EC652BEF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A530A24A-0D9B-42BA-8119-2D4EC652BEF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7578,7 +8153,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7622,7 +8197,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC6BC3D5-558A-485F-ABCA-EDC92D0DD390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6BC3D5-558A-485F-ABCA-EDC92D0DD390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7634,7 +8209,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7678,7 +8253,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FA7064A-C1D2-4C25-AEDA-C5687FF6E100}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA7064A-C1D2-4C25-AEDA-C5687FF6E100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7690,7 +8265,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7734,7 +8309,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BD89023-27C7-4B70-9173-E50D9CD22386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD89023-27C7-4B70-9173-E50D9CD22386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7746,7 +8321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7790,7 +8365,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E364D87C-74F3-4392-89D0-1433A3A89781}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E364D87C-74F3-4392-89D0-1433A3A89781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7802,7 +8377,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7846,7 +8421,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EEE1461-7676-4A98-A531-9D555E0E4102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEE1461-7676-4A98-A531-9D555E0E4102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7858,7 +8433,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7902,7 +8477,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06FE4DE-1B31-4F29-8A8B-6AE199BBA5A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06FE4DE-1B31-4F29-8A8B-6AE199BBA5A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7914,7 +8489,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7942,13 +8517,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>555847</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>33749</xdr:rowOff>
@@ -7958,7 +8533,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAEA58EB-675C-4B11-ABE1-76263B67FFF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEA58EB-675C-4B11-ABE1-76263B67FFF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7970,7 +8545,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -7998,13 +8573,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>193964</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>569702</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>33749</xdr:rowOff>
@@ -8014,7 +8589,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{520432BA-1292-43CC-B5E1-3BB34A64EA08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520432BA-1292-43CC-B5E1-3BB34A64EA08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8026,7 +8601,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8070,7 +8645,7 @@
         <xdr:cNvPr id="22" name="그림 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DF3F12D-AEBA-45D2-870E-9E9F0AFF39C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF3F12D-AEBA-45D2-870E-9E9F0AFF39C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8082,7 +8657,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8126,7 +8701,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4CF62FC-BC25-4155-A0D2-725434B69D72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CF62FC-BC25-4155-A0D2-725434B69D72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8138,7 +8713,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8182,7 +8757,7 @@
         <xdr:cNvPr id="24" name="그림 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C30ED4C2-F519-4869-87B2-7FA504AF7826}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30ED4C2-F519-4869-87B2-7FA504AF7826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8194,7 +8769,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8238,7 +8813,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1108BA06-E289-443D-8520-8B99F3A6E874}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1108BA06-E289-443D-8520-8B99F3A6E874}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8250,7 +8825,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8294,7 +8869,7 @@
         <xdr:cNvPr id="26" name="그림 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0060C7F-7EA8-4088-9074-6AB4ED01C33C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0060C7F-7EA8-4088-9074-6AB4ED01C33C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8306,7 +8881,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8350,7 +8925,7 @@
         <xdr:cNvPr id="27" name="그림 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{618D0E95-DFD2-4EE7-BA9D-E865A2B2C75B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618D0E95-DFD2-4EE7-BA9D-E865A2B2C75B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8362,7 +8937,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8391,13 +8966,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>232064</xdr:colOff>
+      <xdr:colOff>188521</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>607802</xdr:colOff>
+      <xdr:colOff>564259</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>39984</xdr:rowOff>
     </xdr:to>
@@ -8406,7 +8981,7 @@
         <xdr:cNvPr id="28" name="그림 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4937973-55DC-48EF-ACA9-FEAFBFEC1043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4937973-55DC-48EF-ACA9-FEAFBFEC1043}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8418,7 +8993,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8434,8 +9009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6951519" y="5889568"/>
-          <a:ext cx="375738" cy="371107"/>
+          <a:off x="6937664" y="5792586"/>
+          <a:ext cx="375738" cy="365169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8446,13 +9021,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>583556</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>33749</xdr:rowOff>
@@ -8462,7 +9037,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C878E76-2704-41E4-9DA2-E33C60328399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C878E76-2704-41E4-9DA2-E33C60328399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8474,7 +9049,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8502,13 +9077,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>221672</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>597410</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>33749</xdr:rowOff>
@@ -8518,7 +9093,7 @@
         <xdr:cNvPr id="30" name="그림 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5ACE7D3-7F58-4541-BA9B-68C86B2BA05F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ACE7D3-7F58-4541-BA9B-68C86B2BA05F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8530,7 +9105,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8558,23 +9133,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158338</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>555847</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>534076</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="그림 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FE56274-EF8F-457C-8A21-124A24E9D313}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE56274-EF8F-457C-8A21-124A24E9D313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8586,7 +9161,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8602,8 +9177,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9351818" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="9389424" y="6117771"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8614,23 +9189,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>193964</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215736</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>315686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>569702</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591474</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC1E9ACD-BFCF-459B-88CC-65415C3BBE20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1E9ACD-BFCF-459B-88CC-65415C3BBE20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8642,7 +9217,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8658,8 +9233,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10183091" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="10274136" y="6106886"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8670,23 +9245,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>249382</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238496</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>625120</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>614234</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4884924-58C5-4BAF-8C9C-AC76D5B58FDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4884924-58C5-4BAF-8C9C-AC76D5B58FDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8698,7 +9273,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8714,8 +9289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11055927" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="11124210" y="6096000"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8726,15 +9301,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>235527</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191984</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>611265</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>567722</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>33749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8742,7 +9317,7 @@
         <xdr:cNvPr id="34" name="그림 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA04292-FDE2-4FE9-B807-A4E1BA6B6A97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA04292-FDE2-4FE9-B807-A4E1BA6B6A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8754,7 +9329,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8770,8 +9345,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11859491" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="11905013" y="6117772"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8782,23 +9357,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>193963</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>237506</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>283029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>569701</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>613244</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>316778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="35" name="그림 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A19F7F1-58BF-4406-9BF6-EB0E47B6813B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A19F7F1-58BF-4406-9BF6-EB0E47B6813B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8810,7 +9385,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8826,8 +9401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12635345" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="12777849" y="6074229"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8838,23 +9413,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>315685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>583556</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="36" name="그림 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4CBBBD4-C7B0-4DD2-A4F5-532ABBA63057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CBBBD4-C7B0-4DD2-A4F5-532ABBA63057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8866,7 +9441,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8882,8 +9457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15101454" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="15230104" y="6106885"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8894,23 +9469,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>221672</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>232558</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>597410</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608296</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="37" name="그림 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AACB7CE3-A56D-4A5C-936C-F2FED0199304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACB7CE3-A56D-4A5C-936C-F2FED0199304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8922,7 +9497,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8938,8 +9513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15932727" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="16082158" y="6128657"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8950,23 +9525,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>277090</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>233547</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>652828</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609285</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:rowOff>11978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="38" name="그림 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E2680D-5BA3-4A29-954C-E7EA9F1B8DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E2680D-5BA3-4A29-954C-E7EA9F1B8DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8978,7 +9553,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -8994,8 +9569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16805563" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="13601204" y="6422572"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9006,23 +9581,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>263236</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230579</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>638974</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606317</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>33749</xdr:rowOff>
+      <xdr:rowOff>11978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="39" name="그림 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D02B9FAC-A13F-4C00-B7E8-0EA1D7D5BE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02B9FAC-A13F-4C00-B7E8-0EA1D7D5BE6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9034,7 +9609,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9050,8 +9625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17609127" y="6109855"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="14425550" y="6422572"/>
+          <a:ext cx="375738" cy="360320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9062,14 +9637,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>240475</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>583556</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>616213</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>6040</xdr:rowOff>
     </xdr:to>
@@ -9078,7 +9653,7 @@
         <xdr:cNvPr id="41" name="그림 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{067C9E77-E279-45DB-B74A-DE4BBAAF7E4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067C9E77-E279-45DB-B74A-DE4BBAAF7E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9090,7 +9665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
@@ -9106,8 +9681,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18371127" y="6414655"/>
-          <a:ext cx="375738" cy="366258"/>
+          <a:off x="15262761" y="6749143"/>
+          <a:ext cx="375738" cy="354383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9139,7 +9714,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B80D721-DEB2-4EB6-A0A4-5063801384F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B80D721-DEB2-4EB6-A0A4-5063801384F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9158,7 +9733,7 @@
           <xdr:cNvPr id="3" name="그룹 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9010A2F1-DA30-460D-A02C-675CFB2DCFCE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9010A2F1-DA30-460D-A02C-675CFB2DCFCE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9177,7 +9752,7 @@
             <xdr:cNvPr id="16" name="차트 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A07897EE-A317-4C62-BE64-2B584E96250B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07897EE-A317-4C62-BE64-2B584E96250B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9200,7 +9775,7 @@
             <xdr:cNvPr id="17" name="직선 연결선 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{291D0946-6488-4BFA-83DA-7D0719A0737E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291D0946-6488-4BFA-83DA-7D0719A0737E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9242,7 +9817,7 @@
             <xdr:cNvPr id="18" name="직선 연결선 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F715953-F645-4446-85AA-86303C63EDAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F715953-F645-4446-85AA-86303C63EDAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9285,7 +9860,7 @@
           <xdr:cNvPr id="4" name="그룹 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85785B5C-ED22-41A7-8F42-93D037F5ECEC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85785B5C-ED22-41A7-8F42-93D037F5ECEC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9304,7 +9879,7 @@
             <xdr:cNvPr id="14" name="직사각형 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EAD0027-823E-4742-9E29-E9CACF65079D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAD0027-823E-4742-9E29-E9CACF65079D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9358,7 +9933,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2059425C-B7E2-4328-8ECC-A40D97451F64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2059425C-B7E2-4328-8ECC-A40D97451F64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9408,7 +9983,7 @@
           <xdr:cNvPr id="5" name="그룹 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41DAC7F1-6BD6-4842-B9A6-B7CAE482B0B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DAC7F1-6BD6-4842-B9A6-B7CAE482B0B6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9427,7 +10002,7 @@
             <xdr:cNvPr id="12" name="직사각형 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA22F6D4-F427-4630-B4FC-52D1003A6950}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA22F6D4-F427-4630-B4FC-52D1003A6950}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9480,7 +10055,7 @@
             <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922520B-7EB7-4C21-B342-BA65741B2225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922520B-7EB7-4C21-B342-BA65741B2225}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9530,7 +10105,7 @@
           <xdr:cNvPr id="6" name="그룹 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87CFE84A-6372-4477-A969-BF2D14CDF635}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFE84A-6372-4477-A969-BF2D14CDF635}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9549,7 +10124,7 @@
             <xdr:cNvPr id="10" name="직사각형 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4421818-3B97-4237-87A5-6BF8D37E6E1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4421818-3B97-4237-87A5-6BF8D37E6E1B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9600,7 +10175,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83506157-076A-4FE5-843D-92D435A19954}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83506157-076A-4FE5-843D-92D435A19954}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9650,7 +10225,7 @@
           <xdr:cNvPr id="7" name="그룹 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A163F3DE-6F62-4FD3-A4E3-025967E70EEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A163F3DE-6F62-4FD3-A4E3-025967E70EEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9669,7 +10244,7 @@
             <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7F23F58-FF1F-45F4-AFCE-85616595C516}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F23F58-FF1F-45F4-AFCE-85616595C516}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9710,7 +10285,7 @@
             <xdr:cNvPr id="9" name="TextBox 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC16D712-F856-4131-B4B7-384C14FBBD24}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC16D712-F856-4131-B4B7-384C14FBBD24}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9776,7 +10351,7 @@
         <xdr:cNvPr id="19" name="사각형: 둥근 모서리 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61000F22-44EF-4536-A3D6-D3481FD58700}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61000F22-44EF-4536-A3D6-D3481FD58700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9827,7 +10402,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>#NAME?</a:t>
+            <a:t>1조 웹프로젝트 (4월 20일~5월 4일)</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -9857,7 +10432,7 @@
         <xdr:cNvPr id="25" name="직선 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B0A8686-0A1F-49AE-B555-EE9DA4ADA4AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0A8686-0A1F-49AE-B555-EE9DA4ADA4AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9915,7 +10490,7 @@
         <xdr:cNvPr id="26" name="직선 연결선 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{428C1274-D26B-4913-B05E-CD7700989131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428C1274-D26B-4913-B05E-CD7700989131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9973,7 +10548,7 @@
         <xdr:cNvPr id="27" name="직선 연결선 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26988F09-CEC4-4306-9357-32676F7E55B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26988F09-CEC4-4306-9357-32676F7E55B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10031,7 +10606,7 @@
         <xdr:cNvPr id="28" name="직선 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1335BCA9-93EF-4A74-B1DB-5148AF87614C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1335BCA9-93EF-4A74-B1DB-5148AF87614C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10089,7 +10664,7 @@
         <xdr:cNvPr id="29" name="직선 연결선 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B3FDA2F-62B5-4BF3-8CD4-3EA8F91ADBA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3FDA2F-62B5-4BF3-8CD4-3EA8F91ADBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10147,7 +10722,7 @@
         <xdr:cNvPr id="30" name="직선 연결선 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EB49B69-32DB-4EA9-8DDF-D09E76D47156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB49B69-32DB-4EA9-8DDF-D09E76D47156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10205,7 +10780,7 @@
         <xdr:cNvPr id="31" name="직선 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81060D38-556A-4F0D-8ADF-09F8D6C7A5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81060D38-556A-4F0D-8ADF-09F8D6C7A5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10263,7 +10838,7 @@
         <xdr:cNvPr id="32" name="직선 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36ACFFDE-06A0-4D64-8471-0571A2B10B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36ACFFDE-06A0-4D64-8471-0571A2B10B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10321,7 +10896,7 @@
         <xdr:cNvPr id="33" name="직선 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4017BFAE-90F4-4318-81F3-B648A51FBB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4017BFAE-90F4-4318-81F3-B648A51FBB1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10379,7 +10954,7 @@
         <xdr:cNvPr id="34" name="직선 연결선 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0030F34A-7ED9-4EA8-BD52-35C4D8B56DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0030F34A-7ED9-4EA8-BD52-35C4D8B56DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10437,7 +11012,7 @@
         <xdr:cNvPr id="35" name="직선 연결선 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4331343C-21D3-4D3D-9EC6-29B8E1FE8F98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4331343C-21D3-4D3D-9EC6-29B8E1FE8F98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10495,7 +11070,7 @@
         <xdr:cNvPr id="37" name="직선 연결선 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45AE8CB0-4B39-4D6E-BE26-34BCD8929B0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AE8CB0-4B39-4D6E-BE26-34BCD8929B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10553,7 +11128,7 @@
         <xdr:cNvPr id="38" name="직선 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EC3612C-D81D-4D3F-81CB-2676ACAABD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC3612C-D81D-4D3F-81CB-2676ACAABD60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10611,7 +11186,7 @@
         <xdr:cNvPr id="39" name="직선 연결선 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28F1F2B2-0B10-45C4-BAB5-9461A925619F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F1F2B2-0B10-45C4-BAB5-9461A925619F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10669,7 +11244,7 @@
         <xdr:cNvPr id="40" name="직선 연결선 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D268770-D671-477D-A100-4B6981FFD30D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D268770-D671-477D-A100-4B6981FFD30D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10727,7 +11302,7 @@
         <xdr:cNvPr id="41" name="직선 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FD498EE-CFDD-4686-B258-C9EBB5D0571A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD498EE-CFDD-4686-B258-C9EBB5D0571A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10785,7 +11360,7 @@
         <xdr:cNvPr id="42" name="직선 연결선 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C2AE296-4AF9-444B-876B-EDD6F5183DE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2AE296-4AF9-444B-876B-EDD6F5183DE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10843,7 +11418,7 @@
         <xdr:cNvPr id="43" name="직선 연결선 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D98E090-627D-4268-B93E-19262338A5FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D98E090-627D-4268-B93E-19262338A5FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10901,7 +11476,7 @@
         <xdr:cNvPr id="44" name="직선 연결선 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DEFCA1F-8C26-45AD-9AFF-AFFDA4417664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEFCA1F-8C26-45AD-9AFF-AFFDA4417664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10959,7 +11534,7 @@
         <xdr:cNvPr id="45" name="직선 연결선 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD46A14-512B-45FD-8226-1001B1BE3640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD46A14-512B-45FD-8226-1001B1BE3640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11022,7 +11597,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94ABDE24-9474-4739-9933-80E8CF8F9A67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ABDE24-9474-4739-9933-80E8CF8F9A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11034,7 +11609,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11058,7 +11633,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="달력"/>
@@ -11514,7 +12089,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="일정표"/>
@@ -12020,21 +12595,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12042,24 +12617,38 @@
     <col min="1" max="1" width="3.09765625" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.59765625" style="152" customWidth="1"/>
-    <col min="4" max="4" width="14" style="152" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.09765625" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="152" customWidth="1"/>
+    <col min="5" max="5" width="43.296875" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="5.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="10" max="10" width="42.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:10">
       <c r="B2" s="160" t="s">
         <v>220</v>
       </c>
       <c r="C2" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="171"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="168">
+      <c r="E2" s="173"/>
+      <c r="G2" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="173"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="170">
         <v>44309</v>
       </c>
       <c r="C3" s="154">
@@ -12071,9 +12660,21 @@
       <c r="E3" s="155" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="169"/>
+      <c r="G3" s="170">
+        <v>44317</v>
+      </c>
+      <c r="H3" s="154">
+        <v>1</v>
+      </c>
+      <c r="I3" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" s="155" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="171"/>
       <c r="C4" s="44">
         <v>2</v>
       </c>
@@ -12083,25 +12684,43 @@
       <c r="E4" s="156" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="169"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="156" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="171"/>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
       <c r="E5" s="157" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="169"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="157" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="171"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="156" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="169"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="171"/>
       <c r="C7" s="45">
         <v>3.1</v>
       </c>
@@ -12109,11 +12728,21 @@
         <v>214</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="170"/>
+        <v>254</v>
+      </c>
+      <c r="G7" s="171"/>
+      <c r="H7" s="45">
+        <v>2</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="157" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="172"/>
       <c r="C8" s="158">
         <v>3.2</v>
       </c>
@@ -12121,26 +12750,42 @@
         <v>217</v>
       </c>
       <c r="E8" s="159" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>253</v>
+      </c>
+      <c r="G8" s="172"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="C9" s="153"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:10">
       <c r="B10" s="167" t="s">
         <v>220</v>
       </c>
       <c r="C10" s="167" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="171"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="168">
+      <c r="E10" s="173"/>
+      <c r="G10" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="173"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="170">
         <v>44312</v>
       </c>
       <c r="C11" s="154">
@@ -12150,65 +12795,609 @@
         <v>215</v>
       </c>
       <c r="E11" s="155" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="169"/>
+        <v>250</v>
+      </c>
+      <c r="G11" s="170">
+        <v>44318</v>
+      </c>
+      <c r="H11" s="154">
+        <v>1</v>
+      </c>
+      <c r="I11" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="155" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="171"/>
       <c r="C12" s="44">
         <v>2</v>
       </c>
       <c r="D12" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="156" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="156" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="169"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="156" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="171"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="157" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="169"/>
+        <v>249</v>
+      </c>
+      <c r="G13" s="171"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="157" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="171"/>
       <c r="C14" s="44">
         <v>3</v>
       </c>
       <c r="D14" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="156" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="G14" s="171"/>
+      <c r="H14" s="44">
+        <v>2</v>
+      </c>
+      <c r="I14" s="44" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="169"/>
+      <c r="J14" s="156" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="171"/>
       <c r="C15" s="45">
         <v>4</v>
       </c>
       <c r="D15" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="157" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="157" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="170"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="45">
+        <v>3</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15" s="157" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="172"/>
       <c r="C16" s="158"/>
       <c r="D16" s="158"/>
       <c r="E16" s="159"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="173"/>
+      <c r="G18" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="173"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="170">
+        <v>44313</v>
+      </c>
+      <c r="C19" s="154">
+        <v>1</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" s="170">
+        <v>44319</v>
+      </c>
+      <c r="H19" s="154">
+        <v>1</v>
+      </c>
+      <c r="I19" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" s="155" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="171"/>
+      <c r="C20" s="44">
+        <v>2</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="171"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="156" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="171"/>
+      <c r="C21" s="45">
+        <v>3</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="171"/>
+      <c r="H21" s="45">
+        <v>2</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="157" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="171"/>
+      <c r="C22" s="44">
+        <v>4</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>263</v>
+      </c>
+      <c r="G22" s="171"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="156" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="171"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="157"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="157" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="172"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="159" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="173"/>
+      <c r="G26" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="173"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="170">
+        <v>44314</v>
+      </c>
+      <c r="C27" s="154">
+        <v>1</v>
+      </c>
+      <c r="D27" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="155" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="170">
+        <v>44320</v>
+      </c>
+      <c r="H27" s="154">
+        <v>1</v>
+      </c>
+      <c r="I27" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" s="155" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="171"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="156" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="171"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="156" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="171"/>
+      <c r="C29" s="45">
+        <v>2</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="157" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="171"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="157" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="171"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="156" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="171"/>
+      <c r="H30" s="44">
+        <v>2</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="156" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="171"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="157"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="157" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="172"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="159"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="173"/>
+      <c r="G34" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="173"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="170">
+        <v>44315</v>
+      </c>
+      <c r="C35" s="154">
+        <v>1</v>
+      </c>
+      <c r="D35" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="155" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="170">
+        <v>44322</v>
+      </c>
+      <c r="H35" s="154">
+        <v>1</v>
+      </c>
+      <c r="I35" s="154" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" s="155" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="171"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="156" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="171"/>
+      <c r="H36" s="44">
+        <v>2</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" s="156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="171"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="157" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" s="171"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="157" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="171"/>
+      <c r="C38" s="44">
+        <v>2</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="156" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="171"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="156" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="171"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="157" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" s="171"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="157"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="172"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="159"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="159"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="173"/>
+      <c r="G42" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="I42" s="173" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" s="173"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="170">
+        <v>44316</v>
+      </c>
+      <c r="C43" s="154">
+        <v>1</v>
+      </c>
+      <c r="D43" s="154" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="170">
+        <v>44323</v>
+      </c>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="155"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="171"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="156" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" s="171"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="156"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="171"/>
+      <c r="C45" s="45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" s="157" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="171"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="157"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="171"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="156" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46" s="171"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="156"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="171"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" s="171"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="157"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="172"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="159"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="24">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:G48"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B40"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12216,14 +13405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:AB24"/>
+  <dimension ref="B1:X24"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12231,12 +13420,12 @@
     <col min="1" max="1" width="1.296875" customWidth="1"/>
     <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.796875" customWidth="1"/>
+    <col min="4" max="15" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="8.4" customHeight="1"/>
-    <row r="2" spans="2:28" s="79" customFormat="1" ht="27.6" customHeight="1">
+    <row r="1" spans="2:24" ht="8.4" customHeight="1"/>
+    <row r="2" spans="2:24" s="79" customFormat="1" ht="27.6" customHeight="1">
       <c r="B2" s="108" t="s">
         <v>141</v>
       </c>
@@ -12255,25 +13444,22 @@
       <c r="O2" s="107"/>
       <c r="P2" s="107"/>
       <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
       <c r="V2" s="85"/>
       <c r="W2" s="85"/>
       <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-    </row>
-    <row r="3" spans="2:28" s="79" customFormat="1" ht="7.2" customHeight="1">
+    </row>
+    <row r="3" spans="2:24" s="79" customFormat="1" ht="7.2" customHeight="1">
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
@@ -12282,22 +13468,18 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
+      <c r="Q3" s="90" t="s">
+        <v>135</v>
+      </c>
       <c r="R3" s="85"/>
       <c r="S3" s="85"/>
       <c r="T3" s="85"/>
-      <c r="U3" s="90" t="s">
-        <v>135</v>
-      </c>
+      <c r="U3" s="85"/>
       <c r="V3" s="85"/>
       <c r="W3" s="85"/>
       <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-    </row>
-    <row r="4" spans="2:28" ht="27.6" customHeight="1" thickBot="1">
+    </row>
+    <row r="4" spans="2:24" ht="27.6" customHeight="1" thickBot="1">
       <c r="B4" s="76" t="s">
         <v>55</v>
       </c>
@@ -12317,49 +13499,37 @@
         <v>44309</v>
       </c>
       <c r="H4" s="78">
-        <v>44310</v>
+        <v>44312</v>
       </c>
       <c r="I4" s="78">
-        <v>44311</v>
+        <v>44313</v>
       </c>
       <c r="J4" s="78">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="K4" s="78">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="L4" s="78">
-        <v>44314</v>
+        <v>44316</v>
       </c>
       <c r="M4" s="78">
-        <v>44315</v>
+        <v>44319</v>
       </c>
       <c r="N4" s="78">
-        <v>44316</v>
+        <v>44320</v>
       </c>
       <c r="O4" s="78">
-        <v>44317</v>
+        <v>44321</v>
       </c>
       <c r="P4" s="78">
-        <v>44318</v>
+        <v>44322</v>
       </c>
       <c r="Q4" s="78">
-        <v>44319</v>
-      </c>
-      <c r="R4" s="78">
-        <v>44320</v>
-      </c>
-      <c r="S4" s="78">
-        <v>44321</v>
-      </c>
-      <c r="T4" s="78">
-        <v>44322</v>
-      </c>
-      <c r="U4" s="78">
         <v>44323</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="49" customFormat="1" hidden="1">
+    <row r="5" spans="2:24" s="49" customFormat="1" ht="18" hidden="1" thickTop="1">
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
       <c r="D5" s="62"/>
@@ -12368,7 +13538,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="55">
-        <f t="shared" ref="F5:U5" si="0">WEEKDAY(F4,2)</f>
+        <f t="shared" ref="F5:Q5" si="0">WEEKDAY(F4,2)</f>
         <v>4</v>
       </c>
       <c r="G5" s="55">
@@ -12377,63 +13547,47 @@
       </c>
       <c r="H5" s="55">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I5" s="55">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="55">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="55">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" s="55">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" s="55">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="55">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P5" s="55">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q5" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="55">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S5" s="55">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T5" s="55">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U5" s="56">
+      <c r="Q5" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:28" ht="25.8" customHeight="1" thickTop="1">
-      <c r="B6" s="172" t="s">
+    <row r="6" spans="2:24" ht="25.8" customHeight="1" thickTop="1">
+      <c r="B6" s="174" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -12452,14 +13606,10 @@
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
-    </row>
-    <row r="7" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B7" s="172"/>
+      <c r="Q6" s="52"/>
+    </row>
+    <row r="7" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B7" s="174"/>
       <c r="C7" s="71" t="s">
         <v>25</v>
       </c>
@@ -12476,14 +13626,10 @@
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-    </row>
-    <row r="8" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B8" s="172"/>
+      <c r="Q7" s="52"/>
+    </row>
+    <row r="8" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B8" s="174"/>
       <c r="C8" s="71" t="s">
         <v>34</v>
       </c>
@@ -12500,14 +13646,10 @@
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-    </row>
-    <row r="9" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B9" s="172"/>
+      <c r="Q8" s="52"/>
+    </row>
+    <row r="9" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B9" s="174"/>
       <c r="C9" s="71" t="s">
         <v>26</v>
       </c>
@@ -12524,14 +13666,10 @@
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
-    </row>
-    <row r="10" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B10" s="172"/>
+      <c r="Q9" s="52"/>
+    </row>
+    <row r="10" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B10" s="174"/>
       <c r="C10" s="71" t="s">
         <v>54</v>
       </c>
@@ -12548,14 +13686,10 @@
       <c r="N10" s="51"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
-    </row>
-    <row r="11" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B11" s="173"/>
+      <c r="Q10" s="52"/>
+    </row>
+    <row r="11" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B11" s="175"/>
       <c r="C11" s="72" t="s">
         <v>143</v>
       </c>
@@ -12572,14 +13706,10 @@
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-    </row>
-    <row r="12" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B12" s="174" t="s">
+      <c r="Q11" s="58"/>
+    </row>
+    <row r="12" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B12" s="176" t="s">
         <v>148</v>
       </c>
       <c r="C12" s="73" t="s">
@@ -12598,14 +13728,10 @@
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="61"/>
-    </row>
-    <row r="13" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B13" s="172"/>
+      <c r="Q12" s="61"/>
+    </row>
+    <row r="13" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B13" s="174"/>
       <c r="C13" s="71" t="s">
         <v>44</v>
       </c>
@@ -12622,14 +13748,10 @@
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="52"/>
-    </row>
-    <row r="14" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B14" s="175"/>
+      <c r="Q13" s="52"/>
+    </row>
+    <row r="14" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B14" s="177"/>
       <c r="C14" s="74" t="s">
         <v>159</v>
       </c>
@@ -12646,14 +13768,10 @@
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
       <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54"/>
-    </row>
-    <row r="15" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B15" s="174" t="s">
+      <c r="Q14" s="54"/>
+    </row>
+    <row r="15" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B15" s="176" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="73" t="s">
@@ -12672,14 +13790,10 @@
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
       <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="61"/>
-    </row>
-    <row r="16" spans="2:28" ht="25.8" customHeight="1">
-      <c r="B16" s="176"/>
+      <c r="Q15" s="61"/>
+    </row>
+    <row r="16" spans="2:24" ht="25.8" customHeight="1">
+      <c r="B16" s="178"/>
       <c r="C16" s="75" t="s">
         <v>144</v>
       </c>
@@ -12696,14 +13810,10 @@
       <c r="N16" s="59"/>
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="60"/>
-    </row>
-    <row r="17" spans="2:21" ht="25.8" customHeight="1">
-      <c r="B17" s="172"/>
+      <c r="Q16" s="60"/>
+    </row>
+    <row r="17" spans="2:17" ht="25.8" customHeight="1">
+      <c r="B17" s="174"/>
       <c r="C17" s="71" t="s">
         <v>142</v>
       </c>
@@ -12720,14 +13830,10 @@
       <c r="N17" s="51"/>
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="52"/>
-    </row>
-    <row r="18" spans="2:21" ht="25.8" customHeight="1">
-      <c r="B18" s="173"/>
+      <c r="Q17" s="52"/>
+    </row>
+    <row r="18" spans="2:17" ht="25.8" customHeight="1">
+      <c r="B18" s="175"/>
       <c r="C18" s="72" t="s">
         <v>158</v>
       </c>
@@ -12744,14 +13850,10 @@
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="58"/>
-    </row>
-    <row r="19" spans="2:21" ht="25.8" customHeight="1">
-      <c r="B19" s="175"/>
+      <c r="Q18" s="58"/>
+    </row>
+    <row r="19" spans="2:17" ht="25.8" customHeight="1">
+      <c r="B19" s="177"/>
       <c r="C19" s="74" t="s">
         <v>47</v>
       </c>
@@ -12768,13 +13870,9 @@
       <c r="N19" s="53"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
-    </row>
-    <row r="20" spans="2:21" ht="25.8" customHeight="1">
+      <c r="Q19" s="54"/>
+    </row>
+    <row r="20" spans="2:17" ht="25.8" customHeight="1">
       <c r="B20" s="64" t="s">
         <v>21</v>
       </c>
@@ -12792,13 +13890,9 @@
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52"/>
-    </row>
-    <row r="21" spans="2:21" ht="25.8" customHeight="1">
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="2:17" ht="25.8" customHeight="1">
       <c r="B21" s="64" t="s">
         <v>22</v>
       </c>
@@ -12816,13 +13910,9 @@
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="52"/>
-    </row>
-    <row r="22" spans="2:21" ht="25.8" customHeight="1">
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" spans="2:17" ht="25.8" customHeight="1">
       <c r="B22" s="64" t="s">
         <v>46</v>
       </c>
@@ -12840,13 +13930,9 @@
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
       <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="52"/>
-    </row>
-    <row r="23" spans="2:21" ht="25.8" customHeight="1">
+      <c r="Q22" s="52"/>
+    </row>
+    <row r="23" spans="2:17" ht="25.8" customHeight="1">
       <c r="B23" s="64" t="s">
         <v>45</v>
       </c>
@@ -12864,13 +13950,9 @@
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
       <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-    </row>
-    <row r="24" spans="2:21" ht="25.8" customHeight="1">
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="2:17" ht="25.8" customHeight="1">
       <c r="B24" s="65" t="s">
         <v>23</v>
       </c>
@@ -12888,11 +13970,7 @@
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="54"/>
+      <c r="Q24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12901,7 +13979,7 @@
     <mergeCell ref="B15:B19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D5:U24">
+  <conditionalFormatting sqref="D5:Q24">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>D$5=7</formula>
     </cfRule>
@@ -12915,15 +13993,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
+  <dimension ref="B1:AA51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" customHeight="1"/>
@@ -12941,9 +14019,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1" s="183"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -13057,14 +14135,14 @@
       <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="187" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="115" t="s">
         <v>120</v>
@@ -13075,7 +14153,7 @@
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="148" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J5" s="148" t="s">
         <v>200</v>
@@ -13083,13 +14161,13 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="118" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F6" s="119"/>
       <c r="G6" s="120">
@@ -13097,7 +14175,7 @@
       </c>
       <c r="H6" s="80"/>
       <c r="I6" s="147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J6" s="147" t="s">
         <v>202</v>
@@ -13105,13 +14183,13 @@
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="118" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="F7" s="119"/>
       <c r="G7" s="120">
@@ -13119,7 +14197,7 @@
       </c>
       <c r="H7" s="80"/>
       <c r="I7" s="147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J7" s="147" t="s">
         <v>204</v>
@@ -13127,13 +14205,13 @@
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="2:27" s="161" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
       <c r="D8" s="117" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="163" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="F8" s="164"/>
       <c r="G8" s="162">
@@ -13145,13 +14223,13 @@
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="121" t="s">
-        <v>114</v>
+        <v>228</v>
+      </c>
+      <c r="E9" s="207" t="s">
+        <v>309</v>
       </c>
       <c r="F9" s="122"/>
       <c r="G9" s="123">
@@ -13163,17 +14241,17 @@
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="188" t="s">
+      <c r="C10" s="190" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>111</v>
+        <v>313</v>
       </c>
       <c r="F10" s="129"/>
       <c r="G10" s="130">
@@ -13185,13 +14263,13 @@
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
       <c r="D11" s="130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="131" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="F11" s="132"/>
       <c r="G11" s="133">
@@ -13202,17 +14280,17 @@
       <c r="J11" s="80"/>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B12" s="189"/>
-      <c r="C12" s="190"/>
+    <row r="12" spans="2:27" s="169" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="130" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="134" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136">
+        <v>232</v>
+      </c>
+      <c r="E12" s="208" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="209"/>
+      <c r="G12" s="210">
         <v>2</v>
       </c>
       <c r="H12" s="80"/>
@@ -13220,19 +14298,17 @@
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
     </row>
-    <row r="13" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B13" s="189"/>
-      <c r="C13" s="188" t="s">
-        <v>107</v>
-      </c>
+    <row r="13" spans="2:27" s="169" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130">
+        <v>233</v>
+      </c>
+      <c r="E13" s="208" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="209"/>
+      <c r="G13" s="210">
         <v>2</v>
       </c>
       <c r="H13" s="80"/>
@@ -13241,16 +14317,16 @@
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="133">
+        <v>234</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136">
         <v>2</v>
       </c>
       <c r="H14" s="80"/>
@@ -13259,16 +14335,18 @@
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="190" t="s">
+        <v>107</v>
+      </c>
       <c r="D15" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="133">
+        <v>235</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130">
         <v>2</v>
       </c>
       <c r="H15" s="80"/>
@@ -13277,16 +14355,16 @@
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B16" s="189"/>
-      <c r="C16" s="190"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="130" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="136">
+        <v>236</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="132"/>
+      <c r="G16" s="133">
         <v>2</v>
       </c>
       <c r="H16" s="80"/>
@@ -13295,21 +14373,17 @@
       <c r="K16" s="80"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B17" s="177" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="137" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="139">
-        <v>1</v>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="132"/>
+      <c r="G17" s="133">
+        <v>2</v>
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
@@ -13317,17 +14391,17 @@
       <c r="K17" s="80"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="178"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="140" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142">
-        <v>1</v>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="130" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="135"/>
+      <c r="G18" s="136">
+        <v>2</v>
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
@@ -13335,16 +14409,20 @@
       <c r="K18" s="80"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="178"/>
-      <c r="C19" s="182"/>
+      <c r="B19" s="179" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="182" t="s">
+        <v>98</v>
+      </c>
       <c r="D19" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="142">
+        <v>237</v>
+      </c>
+      <c r="E19" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="138"/>
+      <c r="G19" s="139">
         <v>1</v>
       </c>
       <c r="H19" s="80"/>
@@ -13352,35 +14430,33 @@
       <c r="J19" s="80"/>
       <c r="K19" s="80"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="178"/>
-      <c r="C20" s="182"/>
+    <row r="20" spans="2:11" s="169" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B20" s="180"/>
+      <c r="C20" s="184"/>
       <c r="D20" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142">
-        <v>1</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E20" s="211" t="s">
+        <v>320</v>
+      </c>
+      <c r="F20" s="212"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="80"/>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
       <c r="K20" s="80"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="178"/>
-      <c r="C21" s="181"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="143" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="145">
+        <v>239</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142">
         <v>1</v>
       </c>
       <c r="H21" s="80"/>
@@ -13389,18 +14465,16 @@
       <c r="K21" s="80"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="178"/>
-      <c r="C22" s="180" t="s">
-        <v>87</v>
-      </c>
+      <c r="B22" s="180"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="139" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="138"/>
-      <c r="G22" s="139">
+        <v>240</v>
+      </c>
+      <c r="E22" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142">
         <v>1</v>
       </c>
       <c r="H22" s="80"/>
@@ -13409,16 +14483,16 @@
       <c r="K22" s="80"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="178"/>
-      <c r="C23" s="182"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="184"/>
       <c r="D23" s="139" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="151"/>
-      <c r="G23" s="149">
+        <v>241</v>
+      </c>
+      <c r="E23" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142">
         <v>1</v>
       </c>
       <c r="H23" s="80"/>
@@ -13427,13 +14501,13 @@
       <c r="K23" s="80"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="178"/>
-      <c r="C24" s="181"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="139" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E24" s="143" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F24" s="144"/>
       <c r="G24" s="145">
@@ -13445,15 +14519,15 @@
       <c r="K24" s="80"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="178"/>
-      <c r="C25" s="180" t="s">
-        <v>207</v>
+      <c r="B25" s="180"/>
+      <c r="C25" s="182" t="s">
+        <v>87</v>
       </c>
       <c r="D25" s="139" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E25" s="137" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="F25" s="138"/>
       <c r="G25" s="139">
@@ -13465,16 +14539,16 @@
       <c r="K25" s="80"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="179"/>
-      <c r="C26" s="181"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="184"/>
       <c r="D26" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145">
+        <v>244</v>
+      </c>
+      <c r="E26" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="151"/>
+      <c r="G26" s="149">
         <v>1</v>
       </c>
       <c r="H26" s="80"/>
@@ -13482,40 +14556,63 @@
       <c r="J26" s="80"/>
       <c r="K26" s="80"/>
     </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1">
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B27" s="180"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145">
+        <v>1</v>
+      </c>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B28" s="180"/>
+      <c r="C28" s="182" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139">
+        <v>1</v>
+      </c>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B29" s="181"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="139" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="143" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145">
+        <v>1</v>
+      </c>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+    </row>
+    <row r="42" spans="2:11" ht="15" customHeight="1">
       <c r="B42" s="80"/>
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
@@ -13528,18 +14625,33 @@
       <c r="K42" s="80"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
       <c r="H43" s="80"/>
       <c r="I43" s="80"/>
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
       <c r="J45" s="80"/>
@@ -13563,17 +14675,35 @@
       <c r="J48" s="80"/>
       <c r="K48" s="80"/>
     </row>
+    <row r="49" spans="8:11" ht="15.75" customHeight="1">
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+    </row>
+    <row r="50" spans="8:11" ht="15.75" customHeight="1">
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+    </row>
+    <row r="51" spans="8:11" ht="15.75" customHeight="1">
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="B5:B9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -13583,10 +14713,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -13596,10 +14726,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="194" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="106" t="s">
@@ -13618,8 +14748,8 @@
       <c r="K2" s="80"/>
     </row>
     <row r="3" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="98" t="s">
         <v>190</v>
       </c>
@@ -13636,8 +14766,8 @@
       <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="98" t="s">
         <v>191</v>
       </c>
@@ -13654,8 +14784,8 @@
       <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B5" s="194"/>
-      <c r="C5" s="193"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="195"/>
       <c r="D5" s="102" t="s">
         <v>192</v>
       </c>
@@ -13672,8 +14802,8 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="194"/>
-      <c r="C6" s="192" t="s">
+      <c r="B6" s="196"/>
+      <c r="C6" s="194" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="106" t="s">
@@ -13692,8 +14822,8 @@
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="98" t="s">
         <v>194</v>
       </c>
@@ -13710,8 +14840,8 @@
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="98" t="s">
         <v>195</v>
       </c>
@@ -13728,8 +14858,8 @@
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B9" s="194"/>
-      <c r="C9" s="193"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="102" t="s">
         <v>154</v>
       </c>
@@ -13746,7 +14876,7 @@
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B10" s="194"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="83" t="s">
         <v>65</v>
       </c>
@@ -13766,8 +14896,8 @@
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B11" s="194"/>
-      <c r="C11" s="192" t="s">
+      <c r="B11" s="196"/>
+      <c r="C11" s="194" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="106" t="s">
@@ -13786,8 +14916,8 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:11" s="114" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B12" s="194"/>
-      <c r="C12" s="193"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="195"/>
       <c r="D12" s="102" t="s">
         <v>156</v>
       </c>
@@ -13804,7 +14934,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="2:11" s="114" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="193"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="83" t="s">
         <v>58</v>
       </c>
@@ -13825,7 +14955,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -13837,19 +14967,19 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" location="5esWq"/>
+    <hyperlink ref="B15" r:id="rId1" location="5esWq" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="B1:AA44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -13870,9 +15000,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1" s="183"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -13986,10 +15116,10 @@
       <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="193" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="117" t="s">
@@ -14012,8 +15142,8 @@
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="120" t="s">
         <v>167</v>
       </c>
@@ -14034,8 +15164,8 @@
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="120" t="s">
         <v>168</v>
       </c>
@@ -14056,8 +15186,8 @@
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
       <c r="D8" s="120" t="s">
         <v>169</v>
       </c>
@@ -14078,8 +15208,8 @@
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B9" s="186"/>
-      <c r="C9" s="187"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="123" t="s">
         <v>170</v>
       </c>
@@ -14096,7 +15226,7 @@
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B10" s="186"/>
+      <c r="B10" s="188"/>
       <c r="C10" s="124" t="s">
         <v>123</v>
       </c>
@@ -14116,8 +15246,8 @@
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B11" s="186"/>
-      <c r="C11" s="185" t="s">
+      <c r="B11" s="188"/>
+      <c r="C11" s="187" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="117" t="s">
@@ -14136,8 +15266,8 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="120" t="s">
         <v>173</v>
       </c>
@@ -14154,8 +15284,8 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="120" t="s">
         <v>174</v>
       </c>
@@ -14172,8 +15302,8 @@
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="123" t="s">
         <v>175</v>
       </c>
@@ -14190,10 +15320,10 @@
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="190" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="130" t="s">
@@ -14212,8 +15342,8 @@
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B16" s="189"/>
-      <c r="C16" s="189"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="133" t="s">
         <v>177</v>
       </c>
@@ -14230,8 +15360,8 @@
       <c r="K16" s="80"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B17" s="189"/>
-      <c r="C17" s="190"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="192"/>
       <c r="D17" s="136" t="s">
         <v>178</v>
       </c>
@@ -14248,8 +15378,8 @@
       <c r="K17" s="80"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="189"/>
-      <c r="C18" s="188" t="s">
+      <c r="B18" s="191"/>
+      <c r="C18" s="190" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="130" t="s">
@@ -14268,8 +15398,8 @@
       <c r="K18" s="80"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="189"/>
-      <c r="C19" s="189"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="133" t="s">
         <v>180</v>
       </c>
@@ -14286,8 +15416,8 @@
       <c r="K19" s="80"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="189"/>
-      <c r="C20" s="189"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="133" t="s">
         <v>181</v>
       </c>
@@ -14304,8 +15434,8 @@
       <c r="K20" s="80"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="136" t="s">
         <v>182</v>
       </c>
@@ -14322,10 +15452,10 @@
       <c r="K21" s="80"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="197" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="200" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="139" t="s">
@@ -14344,8 +15474,8 @@
       <c r="K22" s="80"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="142" t="s">
         <v>184</v>
       </c>
@@ -14362,8 +15492,8 @@
       <c r="K23" s="80"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="142" t="s">
         <v>185</v>
       </c>
@@ -14380,8 +15510,8 @@
       <c r="K24" s="80"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="198"/>
       <c r="D25" s="142" t="s">
         <v>186</v>
       </c>
@@ -14398,8 +15528,8 @@
       <c r="K25" s="80"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="196"/>
-      <c r="C26" s="197"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="199"/>
       <c r="D26" s="145" t="s">
         <v>187</v>
       </c>
@@ -14416,8 +15546,8 @@
       <c r="K26" s="80"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="196"/>
-      <c r="C27" s="198" t="s">
+      <c r="B27" s="198"/>
+      <c r="C27" s="200" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="139" t="s">
@@ -14434,8 +15564,8 @@
       <c r="K27" s="80"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
       <c r="D28" s="145" t="s">
         <v>188</v>
       </c>
@@ -14452,10 +15582,10 @@
       <c r="K28" s="80"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="192" t="s">
+      <c r="B29" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="194" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="106" t="s">
@@ -14474,8 +15604,8 @@
       <c r="K29" s="80"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="194"/>
-      <c r="C30" s="194"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="98" t="s">
         <v>190</v>
       </c>
@@ -14492,8 +15622,8 @@
       <c r="K30" s="80"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
       <c r="D31" s="98" t="s">
         <v>191</v>
       </c>
@@ -14510,8 +15640,8 @@
       <c r="K31" s="80"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="194"/>
-      <c r="C32" s="193"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="195"/>
       <c r="D32" s="102" t="s">
         <v>192</v>
       </c>
@@ -14528,8 +15658,8 @@
       <c r="K32" s="80"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="194"/>
-      <c r="C33" s="192" t="s">
+      <c r="B33" s="196"/>
+      <c r="C33" s="194" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="106" t="s">
@@ -14548,8 +15678,8 @@
       <c r="K33" s="80"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="194"/>
-      <c r="C34" s="194"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
       <c r="D34" s="98" t="s">
         <v>194</v>
       </c>
@@ -14566,8 +15696,8 @@
       <c r="K34" s="80"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="196"/>
       <c r="D35" s="98" t="s">
         <v>195</v>
       </c>
@@ -14584,8 +15714,8 @@
       <c r="K35" s="80"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="194"/>
-      <c r="C36" s="193"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="195"/>
       <c r="D36" s="102" t="s">
         <v>154</v>
       </c>
@@ -14602,7 +15732,7 @@
       <c r="K36" s="80"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="194"/>
+      <c r="B37" s="196"/>
       <c r="C37" s="83" t="s">
         <v>65</v>
       </c>
@@ -14622,8 +15752,8 @@
       <c r="K37" s="80"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="194"/>
-      <c r="C38" s="192" t="s">
+      <c r="B38" s="196"/>
+      <c r="C38" s="194" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="106" t="s">
@@ -14642,8 +15772,8 @@
       <c r="K38" s="80"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="194"/>
-      <c r="C39" s="193"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="195"/>
       <c r="D39" s="102" t="s">
         <v>156</v>
       </c>
@@ -14660,7 +15790,7 @@
       <c r="K39" s="80"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="193"/>
+      <c r="B40" s="195"/>
       <c r="C40" s="83" t="s">
         <v>58</v>
       </c>
@@ -14726,6 +15856,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C27:C28"/>
@@ -14733,13 +15870,6 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14747,12 +15877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB44"/>
+  <dimension ref="B1:AB44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -14771,10 +15901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="15.75" customHeight="1">
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
@@ -14892,10 +16022,10 @@
       <c r="B5" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="200" t="s">
+      <c r="D5" s="202" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="103" t="s">
@@ -14915,8 +16045,8 @@
     </row>
     <row r="6" spans="2:28" ht="15.75" customHeight="1">
       <c r="B6" s="112"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="95" t="s">
         <v>131</v>
       </c>
@@ -14934,8 +16064,8 @@
     </row>
     <row r="7" spans="2:28" ht="15.75" customHeight="1">
       <c r="B7" s="112"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="201"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="95" t="s">
         <v>129</v>
       </c>
@@ -14953,8 +16083,8 @@
     </row>
     <row r="8" spans="2:28" ht="15.75" customHeight="1">
       <c r="B8" s="112"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="201"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="203"/>
       <c r="E8" s="95" t="s">
         <v>127</v>
       </c>
@@ -14972,8 +16102,8 @@
     </row>
     <row r="9" spans="2:28" ht="15.75" customHeight="1">
       <c r="B9" s="112"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="202"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="204"/>
       <c r="E9" s="99" t="s">
         <v>125</v>
       </c>
@@ -14991,7 +16121,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1">
       <c r="B10" s="112"/>
-      <c r="C10" s="194"/>
+      <c r="C10" s="196"/>
       <c r="D10" s="87" t="s">
         <v>123</v>
       </c>
@@ -15012,8 +16142,8 @@
     </row>
     <row r="11" spans="2:28" ht="15.75" customHeight="1">
       <c r="B11" s="112"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="200" t="s">
+      <c r="C11" s="196"/>
+      <c r="D11" s="202" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="103" t="s">
@@ -15033,8 +16163,8 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1">
       <c r="B12" s="112"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="201"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="203"/>
       <c r="E12" s="95" t="s">
         <v>119</v>
       </c>
@@ -15052,8 +16182,8 @@
     </row>
     <row r="13" spans="2:28" ht="15.75" customHeight="1">
       <c r="B13" s="112"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="201"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="203"/>
       <c r="E13" s="95" t="s">
         <v>117</v>
       </c>
@@ -15071,8 +16201,8 @@
     </row>
     <row r="14" spans="2:28" ht="15.75" customHeight="1">
       <c r="B14" s="112"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="204"/>
       <c r="E14" s="99" t="s">
         <v>115</v>
       </c>
@@ -15090,10 +16220,10 @@
     </row>
     <row r="15" spans="2:28" ht="15.75" customHeight="1">
       <c r="B15" s="112"/>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="192" t="s">
+      <c r="D15" s="194" t="s">
         <v>113</v>
       </c>
       <c r="E15" s="91" t="s">
@@ -15113,8 +16243,8 @@
     </row>
     <row r="16" spans="2:28" ht="15.75" customHeight="1">
       <c r="B16" s="112"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
       <c r="E16" s="95" t="s">
         <v>110</v>
       </c>
@@ -15132,8 +16262,8 @@
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1">
       <c r="B17" s="112"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="193"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="99" t="s">
         <v>109</v>
       </c>
@@ -15151,8 +16281,8 @@
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1">
       <c r="B18" s="112"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194" t="s">
+      <c r="C18" s="196"/>
+      <c r="D18" s="196" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="91" t="s">
@@ -15172,8 +16302,8 @@
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1">
       <c r="B19" s="112"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
       <c r="E19" s="95" t="s">
         <v>104</v>
       </c>
@@ -15191,8 +16321,8 @@
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1">
       <c r="B20" s="112"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="95" t="s">
         <v>102</v>
       </c>
@@ -15210,8 +16340,8 @@
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1">
       <c r="B21" s="112"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="193"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="99" t="s">
         <v>100</v>
       </c>
@@ -15229,10 +16359,10 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="112"/>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="194" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="91" t="s">
@@ -15252,8 +16382,8 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="112"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
       <c r="E23" s="95" t="s">
         <v>95</v>
       </c>
@@ -15271,8 +16401,8 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1">
       <c r="B24" s="112"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="95" t="s">
         <v>93</v>
       </c>
@@ -15290,8 +16420,8 @@
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1">
       <c r="B25" s="112"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
       <c r="E25" s="95" t="s">
         <v>91</v>
       </c>
@@ -15309,8 +16439,8 @@
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1">
       <c r="B26" s="112"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
       <c r="E26" s="99" t="s">
         <v>89</v>
       </c>
@@ -15328,8 +16458,8 @@
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1">
       <c r="B27" s="112"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="192" t="s">
+      <c r="C27" s="196"/>
+      <c r="D27" s="194" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="91" t="s">
@@ -15347,8 +16477,8 @@
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1">
       <c r="B28" s="112"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
       <c r="E28" s="99" t="s">
         <v>84</v>
       </c>
@@ -15366,10 +16496,10 @@
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1">
       <c r="B29" s="112"/>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="192" t="s">
+      <c r="D29" s="194" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="91" t="s">
@@ -15389,8 +16519,8 @@
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1">
       <c r="B30" s="112"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
       <c r="E30" s="95" t="s">
         <v>80</v>
       </c>
@@ -15408,8 +16538,8 @@
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1">
       <c r="B31" s="112"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
       <c r="E31" s="95" t="s">
         <v>78</v>
       </c>
@@ -15427,8 +16557,8 @@
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1">
       <c r="B32" s="112"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="193"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="195"/>
       <c r="E32" s="99" t="s">
         <v>76</v>
       </c>
@@ -15446,8 +16576,8 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" customHeight="1">
       <c r="B33" s="112"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="192" t="s">
+      <c r="C33" s="196"/>
+      <c r="D33" s="194" t="s">
         <v>74</v>
       </c>
       <c r="E33" s="91" t="s">
@@ -15467,8 +16597,8 @@
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
       <c r="B34" s="112"/>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
       <c r="E34" s="95" t="s">
         <v>71</v>
       </c>
@@ -15486,8 +16616,8 @@
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
       <c r="B35" s="112"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
       <c r="E35" s="95" t="s">
         <v>69</v>
       </c>
@@ -15505,8 +16635,8 @@
     </row>
     <row r="36" spans="2:12" ht="15.75" customHeight="1">
       <c r="B36" s="112"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="193"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="195"/>
       <c r="E36" s="99" t="s">
         <v>67</v>
       </c>
@@ -15524,7 +16654,7 @@
     </row>
     <row r="37" spans="2:12" ht="15.75" customHeight="1">
       <c r="B37" s="112"/>
-      <c r="C37" s="194"/>
+      <c r="C37" s="196"/>
       <c r="D37" s="83" t="s">
         <v>65</v>
       </c>
@@ -15543,8 +16673,8 @@
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1">
       <c r="B38" s="112"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="192" t="s">
+      <c r="C38" s="196"/>
+      <c r="D38" s="194" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="91" t="s">
@@ -15564,8 +16694,8 @@
     </row>
     <row r="39" spans="2:12" ht="15.75" customHeight="1">
       <c r="B39" s="112"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="193"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="195"/>
       <c r="E39" s="99" t="s">
         <v>60</v>
       </c>
@@ -15583,7 +16713,7 @@
     </row>
     <row r="40" spans="2:12" ht="15.75" customHeight="1">
       <c r="B40" s="113"/>
-      <c r="C40" s="193"/>
+      <c r="C40" s="195"/>
       <c r="D40" s="83" t="s">
         <v>58</v>
       </c>
@@ -15650,6 +16780,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
     <mergeCell ref="C22:C28"/>
     <mergeCell ref="C29:C40"/>
     <mergeCell ref="D29:D32"/>
@@ -15657,13 +16794,6 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15672,14 +16802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AB29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
@@ -15717,9 +16847,9 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="33" t="e">
-        <f ca="1">F2&amp;" ("&amp;TEXT(G6,"m월 d일")&amp;"~"&amp;TEXT(J14,"5월 4일)")</f>
-        <v>#NAME?</v>
+      <c r="G2" s="33" t="str">
+        <f>F2&amp;" ("&amp;TEXT(G6,"m월 d일")&amp;"~"&amp;TEXT(J14,"5월 4일)")</f>
+        <v>1조 웹프로젝트 (4월 20일~5월 4일)</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -15734,9 +16864,9 @@
       <c r="O3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="32" t="e">
-        <f ca="1">SUMPRODUCT(P6:P14,N6:N14)/SUM(N6:N14)</f>
-        <v>#NAME?</v>
+      <c r="P3" s="32">
+        <f>SUMPRODUCT(P6:P14,N6:N14)/SUM(N6:N14)</f>
+        <v>0.98333333333333339</v>
       </c>
       <c r="AA3" s="34" t="s">
         <v>14</v>
@@ -15746,27 +16876,27 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="18" customHeight="1" thickBot="1">
-      <c r="G4" s="203" t="s">
+      <c r="G4" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="L4" s="204" t="s">
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="L4" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
       <c r="AA4" s="35">
         <f>MIN(G6:G25,L6:L25)-2</f>
         <v>44304</v>
       </c>
-      <c r="AB4" s="35" t="e">
-        <f ca="1">MAX(O6:O25,J6:J25)+10</f>
-        <v>#NAME?</v>
+      <c r="AB4" s="35">
+        <f>MAX(O6:O25,J6:J25)+10</f>
+        <v>44332</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" ht="18" thickBot="1">
@@ -15865,13 +16995,13 @@
       <c r="H6" s="40">
         <v>2</v>
       </c>
-      <c r="I6" s="28" t="e">
-        <f ca="1">J6-G6</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="29" t="e">
-        <f ca="1">WORKDAY.INTL(G6,H6,1)</f>
-        <v>#NAME?</v>
+      <c r="I6" s="28">
+        <f>J6-G6</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="29">
+        <f>WORKDAY.INTL(G6,H6,1)</f>
+        <v>44308</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="17">
@@ -15880,20 +17010,20 @@
       <c r="M6" s="18">
         <v>3</v>
       </c>
-      <c r="N6" s="28" t="e">
-        <f ca="1">O6-L6</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O6" s="29" t="e">
-        <f ca="1">WORKDAY.INTL(L6,M6,1)</f>
-        <v>#NAME?</v>
+      <c r="N6" s="28">
+        <f>O6-L6</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="29">
+        <f>WORKDAY.INTL(L6,M6,1)</f>
+        <v>44309</v>
       </c>
       <c r="P6" s="19">
         <v>1</v>
       </c>
-      <c r="Q6" s="20" t="e">
-        <f ca="1">N6*P6</f>
-        <v>#NAME?</v>
+      <c r="Q6" s="20">
+        <f>N6*P6</f>
+        <v>3</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:S24" si="0">IF(A6="",NA(),19.1-ROW()+6)</f>
@@ -15951,13 +17081,13 @@
       <c r="H7" s="42">
         <v>2</v>
       </c>
-      <c r="I7" s="30" t="e">
-        <f t="shared" ref="I7:I21" ca="1" si="7">J7-G7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="31" t="e">
-        <f t="shared" ref="J7:J16" ca="1" si="8">WORKDAY.INTL(G7,H7,1)</f>
-        <v>#NAME?</v>
+      <c r="I7" s="30">
+        <f t="shared" ref="I7:I21" si="7">J7-G7</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" ref="J7:J16" si="8">WORKDAY.INTL(G7,H7,1)</f>
+        <v>44308</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="24">
@@ -15966,20 +17096,20 @@
       <c r="M7" s="25">
         <v>2</v>
       </c>
-      <c r="N7" s="30" t="e">
-        <f t="shared" ref="N7:N14" ca="1" si="9">O7-L7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" s="31" t="e">
-        <f t="shared" ref="O7:O14" ca="1" si="10">WORKDAY.INTL(L7,M7,1)</f>
-        <v>#NAME?</v>
+      <c r="N7" s="30">
+        <f t="shared" ref="N7:N14" si="9">O7-L7</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="31">
+        <f t="shared" ref="O7:O14" si="10">WORKDAY.INTL(L7,M7,1)</f>
+        <v>44308</v>
       </c>
       <c r="P7" s="26">
         <v>1</v>
       </c>
-      <c r="Q7" s="27" t="e">
-        <f t="shared" ref="Q7:Q25" ca="1" si="11">N7*P7</f>
-        <v>#NAME?</v>
+      <c r="Q7" s="27">
+        <f t="shared" ref="Q7:Q25" si="11">N7*P7</f>
+        <v>2</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="0"/>
@@ -16038,33 +17168,33 @@
       <c r="H8" s="40">
         <v>2</v>
       </c>
-      <c r="I8" s="28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="29" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I8" s="28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="29">
+        <f t="shared" si="8"/>
+        <v>44308</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="17">
         <v>44306</v>
       </c>
       <c r="M8" s="18"/>
-      <c r="N8" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O8" s="29" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#NAME?</v>
+      <c r="N8" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <f t="shared" si="10"/>
+        <v>44306</v>
       </c>
       <c r="P8" s="19">
         <v>0</v>
       </c>
-      <c r="Q8" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q8" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="0"/>
@@ -16121,33 +17251,33 @@
       <c r="H9" s="42">
         <v>2</v>
       </c>
-      <c r="I9" s="30" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I9" s="30">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="8"/>
+        <v>44308</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="24">
         <v>44306</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="30" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O9" s="31" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#NAME?</v>
+      <c r="N9" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="31">
+        <f t="shared" si="10"/>
+        <v>44306</v>
       </c>
       <c r="P9" s="26">
         <v>0</v>
       </c>
-      <c r="Q9" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q9" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="0"/>
@@ -16206,33 +17336,33 @@
       <c r="H10" s="40">
         <v>2</v>
       </c>
-      <c r="I10" s="28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="29" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I10" s="28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="8"/>
+        <v>44308</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="17">
         <v>44306</v>
       </c>
       <c r="M10" s="18"/>
-      <c r="N10" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O10" s="29" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#NAME?</v>
+      <c r="N10" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="29">
+        <f t="shared" si="10"/>
+        <v>44306</v>
       </c>
       <c r="P10" s="19">
         <v>0</v>
       </c>
-      <c r="Q10" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q10" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="0"/>
@@ -16285,33 +17415,33 @@
         <v>44306</v>
       </c>
       <c r="H11" s="42"/>
-      <c r="I11" s="30" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I11" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="8"/>
+        <v>44306</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="24">
         <v>44306</v>
       </c>
       <c r="M11" s="25"/>
-      <c r="N11" s="30" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O11" s="31" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#NAME?</v>
+      <c r="N11" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="31">
+        <f t="shared" si="10"/>
+        <v>44306</v>
       </c>
       <c r="P11" s="26">
         <v>0</v>
       </c>
-      <c r="Q11" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q11" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="0"/>
@@ -16363,33 +17493,33 @@
         <v>44306</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="29" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I12" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="8"/>
+        <v>44306</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="17">
         <v>44306</v>
       </c>
       <c r="M12" s="18"/>
-      <c r="N12" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O12" s="29" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#NAME?</v>
+      <c r="N12" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="29">
+        <f t="shared" si="10"/>
+        <v>44306</v>
       </c>
       <c r="P12" s="19">
         <v>0</v>
       </c>
-      <c r="Q12" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q12" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="0"/>
@@ -16448,13 +17578,13 @@
       <c r="H13" s="42">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I13" s="30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="31">
+        <f t="shared" si="8"/>
+        <v>44307</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="24">
@@ -16466,9 +17596,9 @@
       <c r="N13" s="30">
         <v>1</v>
       </c>
-      <c r="O13" s="31" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#NAME?</v>
+      <c r="O13" s="31">
+        <f t="shared" si="10"/>
+        <v>44307</v>
       </c>
       <c r="P13" s="26">
         <v>0.9</v>
@@ -16532,33 +17662,33 @@
       <c r="H14" s="40">
         <v>2</v>
       </c>
-      <c r="I14" s="28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="29" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I14" s="28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" si="8"/>
+        <v>44308</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="17">
         <v>44314</v>
       </c>
       <c r="M14" s="18"/>
-      <c r="N14" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O14" s="29" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#NAME?</v>
+      <c r="N14" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="29">
+        <f t="shared" si="10"/>
+        <v>44314</v>
       </c>
       <c r="P14" s="19">
         <v>0</v>
       </c>
-      <c r="Q14" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q14" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="0"/>
@@ -16614,33 +17744,33 @@
       <c r="H15" s="42">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I15" s="30">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="31">
+        <f t="shared" si="8"/>
+        <v>44312</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="24">
         <v>44315</v>
       </c>
       <c r="M15" s="25"/>
-      <c r="N15" s="30" t="e">
-        <f t="shared" ref="N15:N25" ca="1" si="14">O15-L15</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O15" s="31" t="e">
-        <f t="shared" ref="O15:O25" ca="1" si="15">WORKDAY.INTL(L15,M15,1)</f>
-        <v>#NAME?</v>
+      <c r="N15" s="30">
+        <f t="shared" ref="N15:N25" si="14">O15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="31">
+        <f t="shared" ref="O15:O25" si="15">WORKDAY.INTL(L15,M15,1)</f>
+        <v>44315</v>
       </c>
       <c r="P15" s="26">
         <v>0</v>
       </c>
-      <c r="Q15" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q15" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="0"/>
@@ -16695,33 +17825,33 @@
         <v>44309</v>
       </c>
       <c r="H16" s="40"/>
-      <c r="I16" s="28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="29" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+      <c r="I16" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <f t="shared" si="8"/>
+        <v>44309</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="17">
         <v>44316</v>
       </c>
       <c r="M16" s="18"/>
-      <c r="N16" s="28" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O16" s="29" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N16" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="29">
+        <f t="shared" si="15"/>
+        <v>44316</v>
       </c>
       <c r="P16" s="19">
         <v>0</v>
       </c>
-      <c r="Q16" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q16" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="0"/>
@@ -16771,33 +17901,33 @@
         <v>44309</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="I17" s="30" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J17" s="31" t="e">
-        <f t="shared" ref="J17:J25" ca="1" si="17">WORKDAY.INTL(G17,H17,1)</f>
-        <v>#NAME?</v>
+      <c r="I17" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" ref="J17:J25" si="17">WORKDAY.INTL(G17,H17,1)</f>
+        <v>44309</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="24">
         <v>44317</v>
       </c>
       <c r="M17" s="25"/>
-      <c r="N17" s="30" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O17" s="31" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N17" s="30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="31">
+        <f t="shared" si="15"/>
+        <v>44317</v>
       </c>
       <c r="P17" s="26">
         <v>0</v>
       </c>
-      <c r="Q17" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q17" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="0"/>
@@ -16847,33 +17977,33 @@
         <v>44309</v>
       </c>
       <c r="H18" s="40"/>
-      <c r="I18" s="28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J18" s="29" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="I18" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
+        <f t="shared" si="17"/>
+        <v>44309</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="17">
         <v>44318</v>
       </c>
       <c r="M18" s="18"/>
-      <c r="N18" s="28" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O18" s="29" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N18" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="29">
+        <f t="shared" si="15"/>
+        <v>44318</v>
       </c>
       <c r="P18" s="19">
         <v>0</v>
       </c>
-      <c r="Q18" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q18" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="0"/>
@@ -16923,33 +18053,33 @@
         <v>44318</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="I19" s="30" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J19" s="31" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="I19" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="17"/>
+        <v>44318</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="24">
         <v>44319</v>
       </c>
       <c r="M19" s="25"/>
-      <c r="N19" s="30" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O19" s="31" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N19" s="30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
+        <f t="shared" si="15"/>
+        <v>44319</v>
       </c>
       <c r="P19" s="26">
         <v>0</v>
       </c>
-      <c r="Q19" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q19" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="0"/>
@@ -16996,33 +18126,33 @@
         <v>44319</v>
       </c>
       <c r="H20" s="40"/>
-      <c r="I20" s="28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="29" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="I20" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="29">
+        <f t="shared" si="17"/>
+        <v>44319</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="17">
         <v>44320</v>
       </c>
       <c r="M20" s="18"/>
-      <c r="N20" s="28" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O20" s="29" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N20" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="29">
+        <f t="shared" si="15"/>
+        <v>44320</v>
       </c>
       <c r="P20" s="19">
         <v>0</v>
       </c>
-      <c r="Q20" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q20" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S20" s="5">
         <f t="shared" si="0"/>
@@ -17079,18 +18209,18 @@
       <c r="K21" s="38"/>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="30" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O21" s="31" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N21" s="30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q21" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="0"/>
@@ -17139,29 +18269,29 @@
       <c r="H22" s="40">
         <v>7</v>
       </c>
-      <c r="I22" s="28" t="e">
-        <f ca="1">J22-G22</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="29" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="I22" s="28">
+        <f>J22-G22</f>
+        <v>11</v>
+      </c>
+      <c r="J22" s="29">
+        <f t="shared" si="17"/>
+        <v>44320</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="17"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="28" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O22" s="29" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N22" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="29">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P22" s="19"/>
-      <c r="Q22" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q22" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="0"/>
@@ -17210,29 +18340,29 @@
       <c r="H23" s="42">
         <v>3</v>
       </c>
-      <c r="I23" s="30" t="e">
-        <f ca="1">J23-G23</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J23" s="31" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="I23" s="30">
+        <f>J23-G23</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="31">
+        <f t="shared" si="17"/>
+        <v>44322</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="24"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="30" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O23" s="31" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N23" s="30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P23" s="26"/>
-      <c r="Q23" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q23" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="0"/>
@@ -17281,29 +18411,29 @@
       <c r="H24" s="40">
         <v>2</v>
       </c>
-      <c r="I24" s="28" t="e">
-        <f ca="1">J24-G24</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J24" s="29" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="I24" s="28">
+        <f>J24-G24</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="29">
+        <f t="shared" si="17"/>
+        <v>44322</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="17"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="28" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O24" s="29" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N24" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="29">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P24" s="19"/>
-      <c r="Q24" s="20" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q24" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" si="0"/>
@@ -17346,29 +18476,29 @@
       <c r="F25" s="48"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="30" t="e">
-        <f ca="1">J25-G25</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J25" s="31" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="I25" s="30">
+        <f>J25-G25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="31">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K25" s="38"/>
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="30" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O25" s="31" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="N25" s="30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P25" s="26"/>
-      <c r="Q25" s="27" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="Q25" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S25" s="5">
         <v>0.1</v>
@@ -17426,10 +18556,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F25" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>OFFSET($A$6,,,COUNTA($A$6:$A$25))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D25" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>$AA$8:$AA$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -17441,13 +18571,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
